--- a/data_month/zb/价格指数/居民消费价格分类指数(上月=100)/城市居民消费价格分类指数(上月=100)(-2015).xlsx
+++ b/data_month/zb/价格指数/居民消费价格分类指数(上月=100)/城市居民消费价格分类指数(上月=100)(-2015).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2006年12月</t>
+          <t>2006-12</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -517,45 +517,45 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2007年11月</t>
+          <t>2007-01</t>
         </is>
       </c>
       <c r="B3" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="C3" t="n">
         <v>100.2</v>
       </c>
-      <c r="C3" t="n">
-        <v>100.3</v>
-      </c>
       <c r="D3" t="n">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="E3" t="n">
-        <v>98.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="G3" t="n">
-        <v>101.4</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="I3" t="n">
-        <v>100.8</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>101.4</v>
+        <v>102.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2007年12月</t>
+          <t>2007-02</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="C4" t="n">
         <v>100.2</v>
@@ -564,146 +564,146 @@
         <v>101</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59999999999999</v>
+        <v>101.3</v>
       </c>
       <c r="F4" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="G4" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="H4" t="n">
         <v>100.2</v>
       </c>
-      <c r="G4" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100.4</v>
-      </c>
       <c r="I4" t="n">
-        <v>99.8</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>102.6</v>
+        <v>102.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年1月</t>
+          <t>2007-03</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>99.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="D5" t="n">
-        <v>100.6</v>
+        <v>99.7</v>
       </c>
       <c r="E5" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="F5" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>100.1</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>100</v>
       </c>
-      <c r="H5" t="n">
-        <v>100.2</v>
-      </c>
       <c r="I5" t="n">
-        <v>99.40000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>102.1</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2007年2月</t>
+          <t>2007-04</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100.2</v>
+        <v>99.8</v>
       </c>
       <c r="C6" t="n">
         <v>100.2</v>
       </c>
       <c r="D6" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>101.3</v>
+        <v>100.7</v>
       </c>
       <c r="F6" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="G6" t="n">
-        <v>99.8</v>
+        <v>100.5</v>
       </c>
       <c r="H6" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="I6" t="n">
-        <v>98.40000000000001</v>
+        <v>100.5</v>
       </c>
       <c r="J6" t="n">
-        <v>102.9</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年3月</t>
+          <t>2007-05</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59999999999999</v>
+        <v>99.78611284</v>
       </c>
       <c r="C7" t="n">
-        <v>100.1</v>
+        <v>100.43677511</v>
       </c>
       <c r="D7" t="n">
-        <v>99.7</v>
+        <v>100.23397092</v>
       </c>
       <c r="E7" t="n">
-        <v>98.8</v>
+        <v>100.16479</v>
       </c>
       <c r="F7" t="n">
-        <v>99.90000000000001</v>
+        <v>100.11808547</v>
       </c>
       <c r="G7" t="n">
-        <v>100.1</v>
+        <v>100.26115211</v>
       </c>
       <c r="H7" t="n">
-        <v>100</v>
+        <v>100.0464108</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59999999999999</v>
+        <v>100.22712325</v>
       </c>
       <c r="J7" t="n">
-        <v>99.7</v>
+        <v>100.37023977</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2007年4月</t>
+          <t>2007-06</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="C8" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="D8" t="n">
-        <v>100</v>
+        <v>100.3</v>
       </c>
       <c r="E8" t="n">
-        <v>100.7</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="G8" t="n">
         <v>100.5</v>
@@ -712,3308 +712,3308 @@
         <v>100.1</v>
       </c>
       <c r="I8" t="n">
-        <v>100.5</v>
+        <v>99.5</v>
       </c>
       <c r="J8" t="n">
-        <v>99.40000000000001</v>
+        <v>101.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年5月</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>99.78611284</v>
+        <v>99.8</v>
       </c>
       <c r="C9" t="n">
-        <v>100.43677511</v>
+        <v>100.2</v>
       </c>
       <c r="D9" t="n">
-        <v>100.23397092</v>
+        <v>101.1</v>
       </c>
       <c r="E9" t="n">
-        <v>100.16479</v>
+        <v>100.1</v>
       </c>
       <c r="F9" t="n">
-        <v>100.11808547</v>
+        <v>100.3</v>
       </c>
       <c r="G9" t="n">
-        <v>100.26115211</v>
+        <v>100.6</v>
       </c>
       <c r="H9" t="n">
-        <v>100.0464108</v>
+        <v>100.2</v>
       </c>
       <c r="I9" t="n">
-        <v>100.22712325</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>100.37023977</v>
+        <v>103.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2007年6月</t>
+          <t>2007-09</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>99.7</v>
       </c>
       <c r="C10" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="D10" t="n">
         <v>100.3</v>
       </c>
       <c r="E10" t="n">
-        <v>99.09999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="G10" t="n">
-        <v>100.5</v>
+        <v>100.8</v>
       </c>
       <c r="H10" t="n">
         <v>100.1</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5</v>
+        <v>100.8</v>
       </c>
       <c r="J10" t="n">
-        <v>101.1</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2007年8月</t>
+          <t>2007-11</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>99.8</v>
+        <v>100.2</v>
       </c>
       <c r="C11" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="D11" t="n">
-        <v>101.1</v>
+        <v>100.7</v>
       </c>
       <c r="E11" t="n">
-        <v>100.1</v>
+        <v>98.7</v>
       </c>
       <c r="F11" t="n">
         <v>100.3</v>
       </c>
       <c r="G11" t="n">
-        <v>100.6</v>
+        <v>101.4</v>
       </c>
       <c r="H11" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="I11" t="n">
-        <v>99.09999999999999</v>
+        <v>100.8</v>
       </c>
       <c r="J11" t="n">
-        <v>103.1</v>
+        <v>101.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2007年9月</t>
+          <t>2007-12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>99.7</v>
+        <v>100.1</v>
       </c>
       <c r="C12" t="n">
         <v>100.2</v>
       </c>
       <c r="D12" t="n">
-        <v>100.3</v>
+        <v>101</v>
       </c>
       <c r="E12" t="n">
-        <v>99.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F12" t="n">
         <v>100.2</v>
       </c>
       <c r="G12" t="n">
-        <v>100.8</v>
+        <v>100.4</v>
       </c>
       <c r="H12" t="n">
-        <v>100.1</v>
+        <v>100.4</v>
       </c>
       <c r="I12" t="n">
-        <v>100.8</v>
+        <v>99.8</v>
       </c>
       <c r="J12" t="n">
-        <v>100.3</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2008年10月</t>
+          <t>2008-01</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="D13" t="n">
-        <v>99.7</v>
+        <v>101.2</v>
       </c>
       <c r="E13" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="F13" t="n">
         <v>100.4</v>
       </c>
-      <c r="F13" t="n">
-        <v>100.3</v>
-      </c>
       <c r="G13" t="n">
-        <v>99</v>
+        <v>100.2</v>
       </c>
       <c r="H13" t="n">
-        <v>100.1</v>
+        <v>100.6</v>
       </c>
       <c r="I13" t="n">
-        <v>100.7</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="J13" t="n">
-        <v>99.3</v>
+        <v>103.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2008年11月</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>99.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>99.8</v>
+        <v>100.5</v>
       </c>
       <c r="D14" t="n">
-        <v>99.2</v>
+        <v>102.7</v>
       </c>
       <c r="E14" t="n">
-        <v>98.8</v>
+        <v>100.6</v>
       </c>
       <c r="F14" t="n">
-        <v>100</v>
+        <v>100.4</v>
       </c>
       <c r="G14" t="n">
-        <v>97.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="H14" t="n">
-        <v>100.1</v>
+        <v>100.4</v>
       </c>
       <c r="I14" t="n">
-        <v>100.5</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="J14" t="n">
-        <v>99.09999999999999</v>
+        <v>107.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2008年12月</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.33901999</v>
+        <v>99.3</v>
       </c>
       <c r="C15" t="n">
-        <v>99.96268572</v>
+        <v>100.4</v>
       </c>
       <c r="D15" t="n">
-        <v>99.67668150999999</v>
+        <v>99.2</v>
       </c>
       <c r="E15" t="n">
-        <v>99.14468895</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>99.94782120000001</v>
+        <v>100.3</v>
       </c>
       <c r="G15" t="n">
-        <v>97.5947869</v>
+        <v>100.2</v>
       </c>
       <c r="H15" t="n">
-        <v>100.05569421</v>
+        <v>100.2</v>
       </c>
       <c r="I15" t="n">
-        <v>99.18701788</v>
+        <v>100.2</v>
       </c>
       <c r="J15" t="n">
-        <v>100.79092869</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2008年1月</t>
+          <t>2008-04</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100</v>
+        <v>99.67943439</v>
       </c>
       <c r="C16" t="n">
-        <v>100.2</v>
+        <v>100.14818786</v>
       </c>
       <c r="D16" t="n">
-        <v>101.2</v>
+        <v>100.1184755</v>
       </c>
       <c r="E16" t="n">
-        <v>100.2</v>
+        <v>100.72827311</v>
       </c>
       <c r="F16" t="n">
-        <v>100.4</v>
+        <v>100.3462988</v>
       </c>
       <c r="G16" t="n">
-        <v>100.2</v>
+        <v>100.19848316</v>
       </c>
       <c r="H16" t="n">
-        <v>100.6</v>
+        <v>100.1621488</v>
       </c>
       <c r="I16" t="n">
-        <v>99.09999999999999</v>
+        <v>100.27392901</v>
       </c>
       <c r="J16" t="n">
-        <v>103.4</v>
+        <v>99.91951312</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2008年2月</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="C17" t="n">
-        <v>100.5</v>
+        <v>100.1</v>
       </c>
       <c r="D17" t="n">
-        <v>102.7</v>
+        <v>99.5</v>
       </c>
       <c r="E17" t="n">
-        <v>100.6</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="G17" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="H17" t="n">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="I17" t="n">
-        <v>98.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="J17" t="n">
-        <v>107.4</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2008年3月</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>99.3</v>
+        <v>100.2</v>
       </c>
       <c r="C18" t="n">
-        <v>100.4</v>
+        <v>100.1</v>
       </c>
       <c r="D18" t="n">
-        <v>99.2</v>
+        <v>99.8</v>
       </c>
       <c r="E18" t="n">
-        <v>98.90000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="F18" t="n">
         <v>100.3</v>
       </c>
       <c r="G18" t="n">
-        <v>100.2</v>
+        <v>100.7</v>
       </c>
       <c r="H18" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="I18" t="n">
-        <v>100.2</v>
+        <v>99.5</v>
       </c>
       <c r="J18" t="n">
-        <v>98</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2008年4月</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>99.67943439</v>
+        <v>100.7</v>
       </c>
       <c r="C19" t="n">
-        <v>100.14818786</v>
+        <v>100.3</v>
       </c>
       <c r="D19" t="n">
-        <v>100.1184755</v>
+        <v>100.1</v>
       </c>
       <c r="E19" t="n">
-        <v>100.72827311</v>
+        <v>100.8</v>
       </c>
       <c r="F19" t="n">
-        <v>100.3462988</v>
+        <v>100.3</v>
       </c>
       <c r="G19" t="n">
-        <v>100.19848316</v>
+        <v>100.2</v>
       </c>
       <c r="H19" t="n">
-        <v>100.1621488</v>
+        <v>100.2</v>
       </c>
       <c r="I19" t="n">
-        <v>100.27392901</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="J19" t="n">
-        <v>99.91951312</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2008年5月</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>99.8</v>
       </c>
       <c r="C20" t="n">
+        <v>100</v>
+      </c>
+      <c r="D20" t="n">
+        <v>100</v>
+      </c>
+      <c r="E20" t="n">
+        <v>100</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="G20" t="n">
         <v>100.1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="E20" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="G20" t="n">
-        <v>100.3</v>
       </c>
       <c r="H20" t="n">
         <v>100.3</v>
       </c>
       <c r="I20" t="n">
-        <v>100</v>
+        <v>100.7</v>
       </c>
       <c r="J20" t="n">
-        <v>98.7</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2008年6月</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>100.2</v>
+        <v>99.8</v>
       </c>
       <c r="C21" t="n">
         <v>100.1</v>
       </c>
       <c r="D21" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="E21" t="n">
-        <v>99.5</v>
+        <v>100.4</v>
       </c>
       <c r="F21" t="n">
         <v>100.3</v>
       </c>
       <c r="G21" t="n">
+        <v>99</v>
+      </c>
+      <c r="H21" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="I21" t="n">
         <v>100.7</v>
       </c>
-      <c r="H21" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="I21" t="n">
-        <v>99.5</v>
-      </c>
       <c r="J21" t="n">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2008年7月</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>100.7</v>
+        <v>99.5</v>
       </c>
       <c r="C22" t="n">
-        <v>100.3</v>
+        <v>99.8</v>
       </c>
       <c r="D22" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="H22" t="n">
         <v>100.1</v>
       </c>
-      <c r="E22" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="G22" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100.2</v>
-      </c>
       <c r="I22" t="n">
-        <v>98.90000000000001</v>
+        <v>100.5</v>
       </c>
       <c r="J22" t="n">
-        <v>99.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2008年9月</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>99.8</v>
+        <v>99.33901999</v>
       </c>
       <c r="C23" t="n">
-        <v>100</v>
+        <v>99.96268572</v>
       </c>
       <c r="D23" t="n">
-        <v>100</v>
+        <v>99.67668150999999</v>
       </c>
       <c r="E23" t="n">
-        <v>100</v>
+        <v>99.14468895</v>
       </c>
       <c r="F23" t="n">
-        <v>100.2</v>
+        <v>99.94782120000001</v>
       </c>
       <c r="G23" t="n">
-        <v>100.1</v>
+        <v>97.5947869</v>
       </c>
       <c r="H23" t="n">
-        <v>100.3</v>
+        <v>100.05569421</v>
       </c>
       <c r="I23" t="n">
-        <v>100.7</v>
+        <v>99.18701788</v>
       </c>
       <c r="J23" t="n">
-        <v>99.8</v>
+        <v>100.79092869</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>99.80108401</v>
+        <v>98.90791126000001</v>
       </c>
       <c r="C24" t="n">
-        <v>100.1853886</v>
+        <v>100.13977947</v>
       </c>
       <c r="D24" t="n">
-        <v>99.93395567</v>
+        <v>100.97364292</v>
       </c>
       <c r="E24" t="n">
-        <v>100.60874275</v>
+        <v>101.45340755</v>
       </c>
       <c r="F24" t="n">
-        <v>99.87449122</v>
+        <v>100.18099598</v>
       </c>
       <c r="G24" t="n">
-        <v>100.37304103</v>
+        <v>99.29658764</v>
       </c>
       <c r="H24" t="n">
-        <v>100.04780517</v>
+        <v>100.02535427</v>
       </c>
       <c r="I24" t="n">
-        <v>100.84643237</v>
+        <v>98.62264084</v>
       </c>
       <c r="J24" t="n">
-        <v>99.20906041000001</v>
+        <v>103.37865174</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>100.142833</v>
+        <v>99.7</v>
       </c>
       <c r="C25" t="n">
-        <v>100.31064895</v>
+        <v>100.2</v>
       </c>
       <c r="D25" t="n">
-        <v>100.31240399</v>
+        <v>100</v>
       </c>
       <c r="E25" t="n">
-        <v>99.03132303</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>100.17564241</v>
+        <v>99.8</v>
       </c>
       <c r="G25" t="n">
-        <v>100.8736317</v>
+        <v>99.7</v>
       </c>
       <c r="H25" t="n">
-        <v>100.15393059</v>
+        <v>100</v>
       </c>
       <c r="I25" t="n">
-        <v>101.01600243</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J25" t="n">
-        <v>100.48266841</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>100.0585051</v>
+        <v>99.9532258</v>
       </c>
       <c r="C26" t="n">
-        <v>100.48255806</v>
+        <v>100.10577693</v>
       </c>
       <c r="D26" t="n">
-        <v>101.03217284</v>
+        <v>99.77091693</v>
       </c>
       <c r="E26" t="n">
-        <v>99.52305266</v>
+        <v>100.38962319</v>
       </c>
       <c r="F26" t="n">
-        <v>99.93698817000001</v>
+        <v>99.74112913</v>
       </c>
       <c r="G26" t="n">
-        <v>100.57040101</v>
+        <v>99.86056102000001</v>
       </c>
       <c r="H26" t="n">
-        <v>100.092937</v>
+        <v>99.97557942</v>
       </c>
       <c r="I26" t="n">
-        <v>99.66515002</v>
+        <v>100.32718239</v>
       </c>
       <c r="J26" t="n">
-        <v>102.97477099</v>
+        <v>99.17407079</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2009年1月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>98.90791126000001</v>
+        <v>99.71604747000001</v>
       </c>
       <c r="C27" t="n">
-        <v>100.13977947</v>
+        <v>100.06630763</v>
       </c>
       <c r="D27" t="n">
-        <v>100.97364292</v>
+        <v>99.71586988999999</v>
       </c>
       <c r="E27" t="n">
-        <v>101.45340755</v>
+        <v>99.70008385</v>
       </c>
       <c r="F27" t="n">
-        <v>100.18099598</v>
+        <v>99.81654179</v>
       </c>
       <c r="G27" t="n">
-        <v>99.29658764</v>
+        <v>99.72931979000001</v>
       </c>
       <c r="H27" t="n">
-        <v>100.02535427</v>
+        <v>100.03767833</v>
       </c>
       <c r="I27" t="n">
-        <v>98.62264084</v>
+        <v>100.05700517</v>
       </c>
       <c r="J27" t="n">
-        <v>103.37865174</v>
+        <v>99.46952237000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.7</v>
+        <v>100.46088521</v>
       </c>
       <c r="C28" t="n">
-        <v>100.2</v>
+        <v>100.01773625</v>
       </c>
       <c r="D28" t="n">
-        <v>100</v>
+        <v>99.99062845</v>
       </c>
       <c r="E28" t="n">
-        <v>98.59999999999999</v>
+        <v>100.86987954</v>
       </c>
       <c r="F28" t="n">
-        <v>99.8</v>
+        <v>99.72735575</v>
       </c>
       <c r="G28" t="n">
-        <v>99.7</v>
+        <v>100.36979418</v>
       </c>
       <c r="H28" t="n">
-        <v>100</v>
+        <v>100.2401412</v>
       </c>
       <c r="I28" t="n">
-        <v>99.59999999999999</v>
+        <v>98.87538221</v>
       </c>
       <c r="J28" t="n">
-        <v>100.9</v>
+        <v>99.67189996</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>99.9532258</v>
+        <v>99.71692422</v>
       </c>
       <c r="C29" t="n">
-        <v>100.10577693</v>
+        <v>100.13331434</v>
       </c>
       <c r="D29" t="n">
-        <v>99.77091693</v>
+        <v>100.44252063</v>
       </c>
       <c r="E29" t="n">
-        <v>100.38962319</v>
+        <v>100.05479564</v>
       </c>
       <c r="F29" t="n">
-        <v>99.74112913</v>
+        <v>99.9433296</v>
       </c>
       <c r="G29" t="n">
-        <v>99.86056102000001</v>
+        <v>100.52708215</v>
       </c>
       <c r="H29" t="n">
-        <v>99.97557942</v>
+        <v>100.35982408</v>
       </c>
       <c r="I29" t="n">
-        <v>100.32718239</v>
+        <v>99.74599253</v>
       </c>
       <c r="J29" t="n">
-        <v>99.17407079</v>
+        <v>101.19884041</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>99.71604747000001</v>
+        <v>100.05264575</v>
       </c>
       <c r="C30" t="n">
-        <v>100.06630763</v>
+        <v>100.15935594</v>
       </c>
       <c r="D30" t="n">
-        <v>99.71586988999999</v>
+        <v>100.4032771</v>
       </c>
       <c r="E30" t="n">
-        <v>99.70008385</v>
+        <v>100.01386193</v>
       </c>
       <c r="F30" t="n">
-        <v>99.81654179</v>
+        <v>100.0204099</v>
       </c>
       <c r="G30" t="n">
-        <v>99.72931979000001</v>
+        <v>100.54125664</v>
       </c>
       <c r="H30" t="n">
-        <v>100.03767833</v>
+        <v>100.30943557</v>
       </c>
       <c r="I30" t="n">
-        <v>100.05700517</v>
+        <v>101.16324333</v>
       </c>
       <c r="J30" t="n">
-        <v>99.46952237000001</v>
+        <v>100.55616538</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.46088521</v>
+        <v>99.80108401</v>
       </c>
       <c r="C31" t="n">
-        <v>100.01773625</v>
+        <v>100.1853886</v>
       </c>
       <c r="D31" t="n">
-        <v>99.99062845</v>
+        <v>99.93395567</v>
       </c>
       <c r="E31" t="n">
-        <v>100.86987954</v>
+        <v>100.60874275</v>
       </c>
       <c r="F31" t="n">
-        <v>99.72735575</v>
+        <v>99.87449122</v>
       </c>
       <c r="G31" t="n">
-        <v>100.36979418</v>
+        <v>100.37304103</v>
       </c>
       <c r="H31" t="n">
-        <v>100.2401412</v>
+        <v>100.04780517</v>
       </c>
       <c r="I31" t="n">
-        <v>98.87538221</v>
+        <v>100.84643237</v>
       </c>
       <c r="J31" t="n">
-        <v>99.67189996</v>
+        <v>99.20906041000001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>99.71692422</v>
+        <v>100.142833</v>
       </c>
       <c r="C32" t="n">
-        <v>100.13331434</v>
+        <v>100.31064895</v>
       </c>
       <c r="D32" t="n">
-        <v>100.44252063</v>
+        <v>100.31240399</v>
       </c>
       <c r="E32" t="n">
-        <v>100.05479564</v>
+        <v>99.03132303</v>
       </c>
       <c r="F32" t="n">
-        <v>99.9433296</v>
+        <v>100.17564241</v>
       </c>
       <c r="G32" t="n">
-        <v>100.52708215</v>
+        <v>100.8736317</v>
       </c>
       <c r="H32" t="n">
-        <v>100.35982408</v>
+        <v>100.15393059</v>
       </c>
       <c r="I32" t="n">
-        <v>99.74599253</v>
+        <v>101.01600243</v>
       </c>
       <c r="J32" t="n">
-        <v>101.19884041</v>
+        <v>100.48266841</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>100.05264575</v>
+        <v>100.0585051</v>
       </c>
       <c r="C33" t="n">
-        <v>100.15935594</v>
+        <v>100.48255806</v>
       </c>
       <c r="D33" t="n">
-        <v>100.4032771</v>
+        <v>101.03217284</v>
       </c>
       <c r="E33" t="n">
-        <v>100.01386193</v>
+        <v>99.52305266</v>
       </c>
       <c r="F33" t="n">
-        <v>100.0204099</v>
+        <v>99.93698817000001</v>
       </c>
       <c r="G33" t="n">
-        <v>100.54125664</v>
+        <v>100.57040101</v>
       </c>
       <c r="H33" t="n">
-        <v>100.30943557</v>
+        <v>100.092937</v>
       </c>
       <c r="I33" t="n">
-        <v>101.16324333</v>
+        <v>99.66515002</v>
       </c>
       <c r="J33" t="n">
-        <v>100.55616538</v>
+        <v>102.97477099</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.00125543</v>
+        <v>99.825954</v>
       </c>
       <c r="C34" t="n">
-        <v>100.54709432</v>
+        <v>100.32040306</v>
       </c>
       <c r="D34" t="n">
-        <v>100.65276986</v>
+        <v>100.62362539</v>
       </c>
       <c r="E34" t="n">
-        <v>100.15811844</v>
+        <v>100.11848453</v>
       </c>
       <c r="F34" t="n">
-        <v>99.98545003</v>
+        <v>100.06556673</v>
       </c>
       <c r="G34" t="n">
-        <v>100.77620927</v>
+        <v>100.36575092</v>
       </c>
       <c r="H34" t="n">
-        <v>100.21706233</v>
+        <v>100.23348131</v>
       </c>
       <c r="I34" t="n">
-        <v>100.94959971</v>
+        <v>99.11829649000001</v>
       </c>
       <c r="J34" t="n">
-        <v>101.10855591</v>
+        <v>101.88732361</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>99.92014592</v>
+        <v>100.31868772</v>
       </c>
       <c r="C35" t="n">
-        <v>100.66525121</v>
+        <v>100.28061011</v>
       </c>
       <c r="D35" t="n">
-        <v>100.96172275</v>
+        <v>101.21269356</v>
       </c>
       <c r="E35" t="n">
-        <v>98.75544676</v>
+        <v>101.23152154</v>
       </c>
       <c r="F35" t="n">
-        <v>100.46020601</v>
+        <v>100.16126545</v>
       </c>
       <c r="G35" t="n">
-        <v>101.59205827</v>
+        <v>100.13504072</v>
       </c>
       <c r="H35" t="n">
-        <v>100.27138275</v>
+        <v>100.044375</v>
       </c>
       <c r="I35" t="n">
-        <v>101.6532217</v>
+        <v>98.35309977999999</v>
       </c>
       <c r="J35" t="n">
-        <v>101.89306847</v>
+        <v>103.3769426</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>100.07648535</v>
+        <v>99.6062604</v>
       </c>
       <c r="C36" t="n">
-        <v>100.44057146</v>
+        <v>100.23088997</v>
       </c>
       <c r="D36" t="n">
-        <v>100.5209307</v>
+        <v>99.31992796999999</v>
       </c>
       <c r="E36" t="n">
-        <v>99.66032543</v>
+        <v>98.83976848</v>
       </c>
       <c r="F36" t="n">
-        <v>100.50354081</v>
+        <v>99.77011675</v>
       </c>
       <c r="G36" t="n">
-        <v>100.67390274</v>
+        <v>99.93150581</v>
       </c>
       <c r="H36" t="n">
-        <v>100.29384926</v>
+        <v>100.19590771</v>
       </c>
       <c r="I36" t="n">
-        <v>100.48891991</v>
+        <v>100.27352488</v>
       </c>
       <c r="J36" t="n">
-        <v>100.9452644</v>
+        <v>98.46491519</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2010年1月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>99.825954</v>
+        <v>99.92584076</v>
       </c>
       <c r="C37" t="n">
-        <v>100.32040306</v>
+        <v>100.35410447</v>
       </c>
       <c r="D37" t="n">
-        <v>100.62362539</v>
+        <v>100.21542836</v>
       </c>
       <c r="E37" t="n">
-        <v>100.11848453</v>
+        <v>100.60892078</v>
       </c>
       <c r="F37" t="n">
-        <v>100.06556673</v>
+        <v>99.99296605000001</v>
       </c>
       <c r="G37" t="n">
-        <v>100.36575092</v>
+        <v>101.02761285</v>
       </c>
       <c r="H37" t="n">
-        <v>100.23348131</v>
+        <v>99.99517523</v>
       </c>
       <c r="I37" t="n">
-        <v>99.11829649000001</v>
+        <v>100.07285673</v>
       </c>
       <c r="J37" t="n">
-        <v>101.88732361</v>
+        <v>99.87765836</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>100.31868772</v>
+        <v>99.86827287</v>
       </c>
       <c r="C38" t="n">
-        <v>100.28061011</v>
+        <v>100.45100315</v>
       </c>
       <c r="D38" t="n">
-        <v>101.21269356</v>
+        <v>99.90987636</v>
       </c>
       <c r="E38" t="n">
-        <v>101.23152154</v>
+        <v>99.94336014</v>
       </c>
       <c r="F38" t="n">
-        <v>100.16126545</v>
+        <v>99.99250909</v>
       </c>
       <c r="G38" t="n">
-        <v>100.13504072</v>
+        <v>100.23647183</v>
       </c>
       <c r="H38" t="n">
-        <v>100.044375</v>
+        <v>100.07943334</v>
       </c>
       <c r="I38" t="n">
-        <v>98.35309977999999</v>
+        <v>100.16352893</v>
       </c>
       <c r="J38" t="n">
-        <v>103.3769426</v>
+        <v>99.51102195</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>99.6062604</v>
+        <v>99.75173278</v>
       </c>
       <c r="C39" t="n">
-        <v>100.23088997</v>
+        <v>100.23677495</v>
       </c>
       <c r="D39" t="n">
-        <v>99.31992796999999</v>
+        <v>99.42223672999999</v>
       </c>
       <c r="E39" t="n">
-        <v>98.83976848</v>
+        <v>99.94881595</v>
       </c>
       <c r="F39" t="n">
-        <v>99.77011675</v>
+        <v>100.23340021</v>
       </c>
       <c r="G39" t="n">
-        <v>99.93150581</v>
+        <v>100.04709822</v>
       </c>
       <c r="H39" t="n">
-        <v>100.19590771</v>
+        <v>100.09142929</v>
       </c>
       <c r="I39" t="n">
-        <v>100.27352488</v>
+        <v>99.61049004</v>
       </c>
       <c r="J39" t="n">
-        <v>98.46491519</v>
+        <v>98.33931848</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.92584076</v>
+        <v>100.08474639</v>
       </c>
       <c r="C40" t="n">
-        <v>100.35410447</v>
+        <v>100.08529022</v>
       </c>
       <c r="D40" t="n">
-        <v>100.21542836</v>
+        <v>100.36617893</v>
       </c>
       <c r="E40" t="n">
-        <v>100.60892078</v>
+        <v>101.05874228</v>
       </c>
       <c r="F40" t="n">
-        <v>99.99296605000001</v>
+        <v>100.04791053</v>
       </c>
       <c r="G40" t="n">
-        <v>101.02761285</v>
+        <v>100.10764287</v>
       </c>
       <c r="H40" t="n">
-        <v>99.99517523</v>
+        <v>100.13190744</v>
       </c>
       <c r="I40" t="n">
-        <v>100.07285673</v>
+        <v>99.22041652</v>
       </c>
       <c r="J40" t="n">
-        <v>99.87765836</v>
+        <v>100.80465946</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>99.86827287</v>
+        <v>99.80568843</v>
       </c>
       <c r="C41" t="n">
-        <v>100.45100315</v>
+        <v>100.12353383</v>
       </c>
       <c r="D41" t="n">
-        <v>99.90987636</v>
+        <v>100.60408476</v>
       </c>
       <c r="E41" t="n">
-        <v>99.94336014</v>
+        <v>100.25970173</v>
       </c>
       <c r="F41" t="n">
-        <v>99.99250909</v>
+        <v>100.14803525</v>
       </c>
       <c r="G41" t="n">
-        <v>100.23647183</v>
+        <v>100.18261183</v>
       </c>
       <c r="H41" t="n">
-        <v>100.07943334</v>
+        <v>100.22808321</v>
       </c>
       <c r="I41" t="n">
-        <v>100.16352893</v>
+        <v>99.37249319</v>
       </c>
       <c r="J41" t="n">
-        <v>99.51102195</v>
+        <v>101.80170971</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>99.75173278</v>
+        <v>99.89920026999999</v>
       </c>
       <c r="C42" t="n">
-        <v>100.23677495</v>
+        <v>100.25167103</v>
       </c>
       <c r="D42" t="n">
-        <v>99.42223672999999</v>
+        <v>100.5109643</v>
       </c>
       <c r="E42" t="n">
-        <v>99.94881595</v>
+        <v>100.04216778</v>
       </c>
       <c r="F42" t="n">
-        <v>100.23340021</v>
+        <v>99.95318546</v>
       </c>
       <c r="G42" t="n">
-        <v>100.04709822</v>
+        <v>100.40198818</v>
       </c>
       <c r="H42" t="n">
-        <v>100.09142929</v>
+        <v>100.13832869</v>
       </c>
       <c r="I42" t="n">
-        <v>99.61049004</v>
+        <v>100.6318564</v>
       </c>
       <c r="J42" t="n">
-        <v>98.33931848</v>
+        <v>101.11862101</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>100.08474639</v>
+        <v>100.00125543</v>
       </c>
       <c r="C43" t="n">
-        <v>100.08529022</v>
+        <v>100.54709432</v>
       </c>
       <c r="D43" t="n">
-        <v>100.36617893</v>
+        <v>100.65276986</v>
       </c>
       <c r="E43" t="n">
-        <v>101.05874228</v>
+        <v>100.15811844</v>
       </c>
       <c r="F43" t="n">
-        <v>100.04791053</v>
+        <v>99.98545003</v>
       </c>
       <c r="G43" t="n">
-        <v>100.10764287</v>
+        <v>100.77620927</v>
       </c>
       <c r="H43" t="n">
-        <v>100.13190744</v>
+        <v>100.21706233</v>
       </c>
       <c r="I43" t="n">
-        <v>99.22041652</v>
+        <v>100.94959971</v>
       </c>
       <c r="J43" t="n">
-        <v>100.80465946</v>
+        <v>101.10855591</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>99.80568843</v>
+        <v>99.92014592</v>
       </c>
       <c r="C44" t="n">
-        <v>100.12353383</v>
+        <v>100.66525121</v>
       </c>
       <c r="D44" t="n">
-        <v>100.60408476</v>
+        <v>100.96172275</v>
       </c>
       <c r="E44" t="n">
-        <v>100.25970173</v>
+        <v>98.75544676</v>
       </c>
       <c r="F44" t="n">
-        <v>100.14803525</v>
+        <v>100.46020601</v>
       </c>
       <c r="G44" t="n">
-        <v>100.18261183</v>
+        <v>101.59205827</v>
       </c>
       <c r="H44" t="n">
-        <v>100.22808321</v>
+        <v>100.27138275</v>
       </c>
       <c r="I44" t="n">
-        <v>99.37249319</v>
+        <v>101.6532217</v>
       </c>
       <c r="J44" t="n">
-        <v>101.80170971</v>
+        <v>101.89306847</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>99.89920026999999</v>
+        <v>100.07648535</v>
       </c>
       <c r="C45" t="n">
-        <v>100.25167103</v>
+        <v>100.44057146</v>
       </c>
       <c r="D45" t="n">
-        <v>100.5109643</v>
+        <v>100.5209307</v>
       </c>
       <c r="E45" t="n">
-        <v>100.04216778</v>
+        <v>99.66032543</v>
       </c>
       <c r="F45" t="n">
-        <v>99.95318546</v>
+        <v>100.50354081</v>
       </c>
       <c r="G45" t="n">
-        <v>100.40198818</v>
+        <v>100.67390274</v>
       </c>
       <c r="H45" t="n">
-        <v>100.13832869</v>
+        <v>100.29384926</v>
       </c>
       <c r="I45" t="n">
-        <v>100.6318564</v>
+        <v>100.48891991</v>
       </c>
       <c r="J45" t="n">
-        <v>101.11862101</v>
+        <v>100.9452644</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>99.73055752</v>
+        <v>100.50332319</v>
       </c>
       <c r="C46" t="n">
-        <v>99.8276408</v>
+        <v>100.23090354</v>
       </c>
       <c r="D46" t="n">
-        <v>100.10902507</v>
+        <v>101.03235747</v>
       </c>
       <c r="E46" t="n">
-        <v>100.24033164</v>
+        <v>100.51058319</v>
       </c>
       <c r="F46" t="n">
-        <v>100.087814</v>
+        <v>100.42111891</v>
       </c>
       <c r="G46" t="n">
-        <v>100.0235121</v>
+        <v>100.28318579</v>
       </c>
       <c r="H46" t="n">
-        <v>100.55229535</v>
+        <v>100.21816779</v>
       </c>
       <c r="I46" t="n">
-        <v>101.57088697</v>
+        <v>99.28858323</v>
       </c>
       <c r="J46" t="n">
-        <v>99.89329615</v>
+        <v>102.8399599</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>99.75681011</v>
+        <v>100.01795636</v>
       </c>
       <c r="C47" t="n">
-        <v>100.23219488</v>
+        <v>100.14181776</v>
       </c>
       <c r="D47" t="n">
-        <v>99.81528174</v>
+        <v>101.21294619</v>
       </c>
       <c r="E47" t="n">
-        <v>99.07815816999999</v>
+        <v>100.36664858</v>
       </c>
       <c r="F47" t="n">
-        <v>100.31165199</v>
+        <v>100.20169163</v>
       </c>
       <c r="G47" t="n">
-        <v>99.97721102</v>
+        <v>100.31812044</v>
       </c>
       <c r="H47" t="n">
-        <v>100.40562548</v>
+        <v>100.19844646</v>
       </c>
       <c r="I47" t="n">
-        <v>101.42894556</v>
+        <v>99.23801266</v>
       </c>
       <c r="J47" t="n">
-        <v>99.31764978</v>
+        <v>103.68187099</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>99.88001693</v>
+        <v>100.1</v>
       </c>
       <c r="C48" t="n">
-        <v>99.87940077</v>
+        <v>100.3</v>
       </c>
       <c r="D48" t="n">
-        <v>100.33019663</v>
+        <v>99.8</v>
       </c>
       <c r="E48" t="n">
-        <v>99.64129099</v>
+        <v>99.2</v>
       </c>
       <c r="F48" t="n">
-        <v>99.95899224</v>
+        <v>100.3</v>
       </c>
       <c r="G48" t="n">
-        <v>99.71425106</v>
+        <v>100.6</v>
       </c>
       <c r="H48" t="n">
-        <v>100.33397435</v>
+        <v>100.4</v>
       </c>
       <c r="I48" t="n">
-        <v>100.17988554</v>
+        <v>100.7</v>
       </c>
       <c r="J48" t="n">
-        <v>101.35622699</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2011年1月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>100.50332319</v>
+        <v>100.4</v>
       </c>
       <c r="C49" t="n">
-        <v>100.23090354</v>
+        <v>100.3</v>
       </c>
       <c r="D49" t="n">
-        <v>101.03235747</v>
+        <v>100.2</v>
       </c>
       <c r="E49" t="n">
-        <v>100.51058319</v>
+        <v>100.5</v>
       </c>
       <c r="F49" t="n">
-        <v>100.42111891</v>
+        <v>100.2</v>
       </c>
       <c r="G49" t="n">
-        <v>100.28318579</v>
+        <v>100.4</v>
       </c>
       <c r="H49" t="n">
-        <v>100.21816779</v>
+        <v>100.3</v>
       </c>
       <c r="I49" t="n">
-        <v>99.28858323</v>
+        <v>100.7</v>
       </c>
       <c r="J49" t="n">
-        <v>102.8399599</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>100.01795636</v>
+        <v>100.1</v>
       </c>
       <c r="C50" t="n">
-        <v>100.14181776</v>
+        <v>100.4</v>
       </c>
       <c r="D50" t="n">
-        <v>101.21294619</v>
+        <v>100.1</v>
       </c>
       <c r="E50" t="n">
-        <v>100.36664858</v>
+        <v>100</v>
       </c>
       <c r="F50" t="n">
-        <v>100.20169163</v>
+        <v>100.4</v>
       </c>
       <c r="G50" t="n">
-        <v>100.31812044</v>
+        <v>100.2</v>
       </c>
       <c r="H50" t="n">
-        <v>100.19844646</v>
+        <v>100.4</v>
       </c>
       <c r="I50" t="n">
-        <v>99.23801266</v>
+        <v>100.5</v>
       </c>
       <c r="J50" t="n">
-        <v>103.68187099</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>100.1</v>
+        <v>99.8</v>
       </c>
       <c r="C51" t="n">
         <v>100.3</v>
       </c>
       <c r="D51" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="E51" t="n">
+        <v>100</v>
+      </c>
+      <c r="F51" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="G51" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="H51" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="I51" t="n">
         <v>99.8</v>
       </c>
-      <c r="E51" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="F51" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="G51" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="H51" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="I51" t="n">
-        <v>100.7</v>
-      </c>
       <c r="J51" t="n">
-        <v>99.09999999999999</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>100.4</v>
+        <v>100.01264656</v>
       </c>
       <c r="C52" t="n">
-        <v>100.3</v>
+        <v>100.26093541</v>
       </c>
       <c r="D52" t="n">
-        <v>100.2</v>
+        <v>100.46423542</v>
       </c>
       <c r="E52" t="n">
-        <v>100.5</v>
+        <v>100.76972356</v>
       </c>
       <c r="F52" t="n">
-        <v>100.2</v>
+        <v>100.24181946</v>
       </c>
       <c r="G52" t="n">
-        <v>100.4</v>
+        <v>100.10204676</v>
       </c>
       <c r="H52" t="n">
-        <v>100.3</v>
+        <v>100.21359342</v>
       </c>
       <c r="I52" t="n">
-        <v>100.7</v>
+        <v>99.38307207</v>
       </c>
       <c r="J52" t="n">
-        <v>99.59999999999999</v>
+        <v>101.14882963</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>100.1</v>
+        <v>99.97293184</v>
       </c>
       <c r="C53" t="n">
-        <v>100.4</v>
+        <v>100.62093757</v>
       </c>
       <c r="D53" t="n">
-        <v>100.1</v>
+        <v>100.3090745</v>
       </c>
       <c r="E53" t="n">
-        <v>100</v>
+        <v>100.09704629</v>
       </c>
       <c r="F53" t="n">
-        <v>100.4</v>
+        <v>100.2190795</v>
       </c>
       <c r="G53" t="n">
-        <v>100.2</v>
+        <v>100.28255811</v>
       </c>
       <c r="H53" t="n">
-        <v>100.4</v>
+        <v>100.20789303</v>
       </c>
       <c r="I53" t="n">
-        <v>100.5</v>
+        <v>99.98298186</v>
       </c>
       <c r="J53" t="n">
-        <v>99.7</v>
+        <v>100.54783829</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>99.8</v>
+        <v>99.84958856</v>
       </c>
       <c r="C54" t="n">
-        <v>100.3</v>
+        <v>100.15827237</v>
       </c>
       <c r="D54" t="n">
-        <v>100.2</v>
+        <v>100.44003221</v>
       </c>
       <c r="E54" t="n">
-        <v>100</v>
+        <v>99.64027895</v>
       </c>
       <c r="F54" t="n">
-        <v>100.2</v>
+        <v>100.16072298</v>
       </c>
       <c r="G54" t="n">
-        <v>99.90000000000001</v>
+        <v>100.17483334</v>
       </c>
       <c r="H54" t="n">
-        <v>100.3</v>
+        <v>100.68227365</v>
       </c>
       <c r="I54" t="n">
-        <v>99.8</v>
+        <v>100.91408514</v>
       </c>
       <c r="J54" t="n">
-        <v>100.8</v>
+        <v>101.09519293</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>100.01264656</v>
+        <v>99.73055752</v>
       </c>
       <c r="C55" t="n">
-        <v>100.26093541</v>
+        <v>99.8276408</v>
       </c>
       <c r="D55" t="n">
-        <v>100.46423542</v>
+        <v>100.10902507</v>
       </c>
       <c r="E55" t="n">
-        <v>100.76972356</v>
+        <v>100.24033164</v>
       </c>
       <c r="F55" t="n">
-        <v>100.24181946</v>
+        <v>100.087814</v>
       </c>
       <c r="G55" t="n">
-        <v>100.10204676</v>
+        <v>100.0235121</v>
       </c>
       <c r="H55" t="n">
-        <v>100.21359342</v>
+        <v>100.55229535</v>
       </c>
       <c r="I55" t="n">
-        <v>99.38307207</v>
+        <v>101.57088697</v>
       </c>
       <c r="J55" t="n">
-        <v>101.14882963</v>
+        <v>99.89329615</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>99.97293184</v>
+        <v>99.75681011</v>
       </c>
       <c r="C56" t="n">
-        <v>100.62093757</v>
+        <v>100.23219488</v>
       </c>
       <c r="D56" t="n">
-        <v>100.3090745</v>
+        <v>99.81528174</v>
       </c>
       <c r="E56" t="n">
-        <v>100.09704629</v>
+        <v>99.07815816999999</v>
       </c>
       <c r="F56" t="n">
-        <v>100.2190795</v>
+        <v>100.31165199</v>
       </c>
       <c r="G56" t="n">
-        <v>100.28255811</v>
+        <v>99.97721102</v>
       </c>
       <c r="H56" t="n">
-        <v>100.20789303</v>
+        <v>100.40562548</v>
       </c>
       <c r="I56" t="n">
-        <v>99.98298186</v>
+        <v>101.42894556</v>
       </c>
       <c r="J56" t="n">
-        <v>100.54783829</v>
+        <v>99.31764978</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>99.84958856</v>
+        <v>99.88001693</v>
       </c>
       <c r="C57" t="n">
-        <v>100.15827237</v>
+        <v>99.87940077</v>
       </c>
       <c r="D57" t="n">
-        <v>100.44003221</v>
+        <v>100.33019663</v>
       </c>
       <c r="E57" t="n">
-        <v>99.64027895</v>
+        <v>99.64129099</v>
       </c>
       <c r="F57" t="n">
-        <v>100.16072298</v>
+        <v>99.95899224</v>
       </c>
       <c r="G57" t="n">
-        <v>100.17483334</v>
+        <v>99.71425106</v>
       </c>
       <c r="H57" t="n">
-        <v>100.68227365</v>
+        <v>100.33397435</v>
       </c>
       <c r="I57" t="n">
-        <v>100.91408514</v>
+        <v>100.17988554</v>
       </c>
       <c r="J57" t="n">
-        <v>101.09519293</v>
+        <v>101.35622699</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>100.13438994</v>
+        <v>100.32266688</v>
       </c>
       <c r="C58" t="n">
-        <v>100.17235482</v>
+        <v>100.05219927</v>
       </c>
       <c r="D58" t="n">
-        <v>99.91335655</v>
+        <v>101.48847592</v>
       </c>
       <c r="E58" t="n">
-        <v>100.28228258</v>
+        <v>101.21692986</v>
       </c>
       <c r="F58" t="n">
-        <v>99.99643634</v>
+        <v>100.49394018</v>
       </c>
       <c r="G58" t="n">
-        <v>100.22117696</v>
+        <v>100.17725192</v>
       </c>
       <c r="H58" t="n">
-        <v>100.08687449</v>
+        <v>100.07303674</v>
       </c>
       <c r="I58" t="n">
-        <v>100.88240309</v>
+        <v>98.80393699</v>
       </c>
       <c r="J58" t="n">
-        <v>99.15389964000001</v>
+        <v>104.21066042</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>99.66081610000001</v>
+        <v>100.03057582</v>
       </c>
       <c r="C59" t="n">
-        <v>100.05410922</v>
+        <v>100.30493662</v>
       </c>
       <c r="D59" t="n">
-        <v>100.08974344</v>
+        <v>99.87991363</v>
       </c>
       <c r="E59" t="n">
-        <v>98.92385899</v>
+        <v>98.99079509000001</v>
       </c>
       <c r="F59" t="n">
-        <v>100.28038241</v>
+        <v>100.11126919</v>
       </c>
       <c r="G59" t="n">
-        <v>100.12088986</v>
+        <v>100.50273619</v>
       </c>
       <c r="H59" t="n">
-        <v>100.09476143</v>
+        <v>100.1719893</v>
       </c>
       <c r="I59" t="n">
-        <v>101.02745459</v>
+        <v>99.74836059</v>
       </c>
       <c r="J59" t="n">
-        <v>100.36861011</v>
+        <v>99.65217112000001</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>99.82943973</v>
+        <v>100.19645624</v>
       </c>
       <c r="C60" t="n">
-        <v>100.02670918</v>
+        <v>100.05978034</v>
       </c>
       <c r="D60" t="n">
-        <v>100.76242241</v>
+        <v>100.24716225</v>
       </c>
       <c r="E60" t="n">
-        <v>99.79726286</v>
+        <v>99.83166186</v>
       </c>
       <c r="F60" t="n">
-        <v>100.10955826</v>
+        <v>99.95340709</v>
       </c>
       <c r="G60" t="n">
-        <v>100.10376751</v>
+        <v>100.41956578</v>
       </c>
       <c r="H60" t="n">
-        <v>100.07394471</v>
+        <v>100.18861518</v>
       </c>
       <c r="I60" t="n">
-        <v>99.92443829</v>
+        <v>100.5770908</v>
       </c>
       <c r="J60" t="n">
-        <v>102.44016255</v>
+        <v>100.33235396</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2012年1月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>100.32266688</v>
+        <v>100.39120339</v>
       </c>
       <c r="C61" t="n">
-        <v>100.05219927</v>
+        <v>100.2602253</v>
       </c>
       <c r="D61" t="n">
-        <v>101.48847592</v>
+        <v>99.95491527</v>
       </c>
       <c r="E61" t="n">
-        <v>101.21692986</v>
+        <v>100.76429062</v>
       </c>
       <c r="F61" t="n">
-        <v>100.49394018</v>
+        <v>100.18575702</v>
       </c>
       <c r="G61" t="n">
-        <v>100.17725192</v>
+        <v>100.23188644</v>
       </c>
       <c r="H61" t="n">
-        <v>100.07303674</v>
+        <v>100.17634901</v>
       </c>
       <c r="I61" t="n">
-        <v>98.80393699</v>
+        <v>100.44982105</v>
       </c>
       <c r="J61" t="n">
-        <v>104.21066042</v>
+        <v>99.09215958</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>100.03057582</v>
+        <v>99.67685729</v>
       </c>
       <c r="C62" t="n">
-        <v>100.30493662</v>
+        <v>100.07665286</v>
       </c>
       <c r="D62" t="n">
-        <v>99.87991363</v>
+        <v>99.73287988</v>
       </c>
       <c r="E62" t="n">
-        <v>98.99079509000001</v>
+        <v>99.89458046</v>
       </c>
       <c r="F62" t="n">
-        <v>100.11126919</v>
+        <v>100.12206461</v>
       </c>
       <c r="G62" t="n">
-        <v>100.50273619</v>
+        <v>99.9887047</v>
       </c>
       <c r="H62" t="n">
-        <v>100.1719893</v>
+        <v>100.16982156</v>
       </c>
       <c r="I62" t="n">
-        <v>99.74836059</v>
+        <v>100.00684166</v>
       </c>
       <c r="J62" t="n">
-        <v>99.65217112000001</v>
+        <v>99.27358912</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>100.19645624</v>
+        <v>99.55586889</v>
       </c>
       <c r="C63" t="n">
-        <v>100.05978034</v>
+        <v>100.12999069</v>
       </c>
       <c r="D63" t="n">
-        <v>100.24716225</v>
+        <v>99.42299027999999</v>
       </c>
       <c r="E63" t="n">
-        <v>99.83166186</v>
+        <v>99.97154286999999</v>
       </c>
       <c r="F63" t="n">
-        <v>99.95340709</v>
+        <v>100.14458395</v>
       </c>
       <c r="G63" t="n">
-        <v>100.41956578</v>
+        <v>100.07551169</v>
       </c>
       <c r="H63" t="n">
-        <v>100.18861518</v>
+        <v>100.10379007</v>
       </c>
       <c r="I63" t="n">
-        <v>100.5770908</v>
+        <v>99.90513319999999</v>
       </c>
       <c r="J63" t="n">
-        <v>100.33235396</v>
+        <v>98.28811295</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>100.39120339</v>
+        <v>99.59383645</v>
       </c>
       <c r="C64" t="n">
-        <v>100.2602253</v>
+        <v>100.10307141</v>
       </c>
       <c r="D64" t="n">
-        <v>99.95491527</v>
+        <v>100.14732081</v>
       </c>
       <c r="E64" t="n">
-        <v>100.76429062</v>
+        <v>100.94696246</v>
       </c>
       <c r="F64" t="n">
-        <v>100.18575702</v>
+        <v>100.27731143</v>
       </c>
       <c r="G64" t="n">
-        <v>100.23188644</v>
+        <v>100.6788548</v>
       </c>
       <c r="H64" t="n">
-        <v>100.17634901</v>
+        <v>100.01393803</v>
       </c>
       <c r="I64" t="n">
-        <v>100.44982105</v>
+        <v>99.42351896</v>
       </c>
       <c r="J64" t="n">
-        <v>99.09215958</v>
+        <v>99.91971321</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>99.67685729</v>
+        <v>100.02012856</v>
       </c>
       <c r="C65" t="n">
-        <v>100.07665286</v>
+        <v>100.16070421</v>
       </c>
       <c r="D65" t="n">
-        <v>99.73287988</v>
+        <v>100.5545988</v>
       </c>
       <c r="E65" t="n">
-        <v>99.89458046</v>
+        <v>100.10464895</v>
       </c>
       <c r="F65" t="n">
-        <v>100.12206461</v>
+        <v>100.05418474</v>
       </c>
       <c r="G65" t="n">
-        <v>99.9887047</v>
+        <v>100.38685316</v>
       </c>
       <c r="H65" t="n">
-        <v>100.16982156</v>
+        <v>100.05876938</v>
       </c>
       <c r="I65" t="n">
-        <v>100.00684166</v>
+        <v>99.80597985</v>
       </c>
       <c r="J65" t="n">
-        <v>99.27358912</v>
+        <v>101.4506122</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>99.55586889</v>
+        <v>100.39589589</v>
       </c>
       <c r="C66" t="n">
-        <v>100.12999069</v>
+        <v>100.31397066</v>
       </c>
       <c r="D66" t="n">
-        <v>99.42299027999999</v>
+        <v>100.30763453</v>
       </c>
       <c r="E66" t="n">
-        <v>99.97154286999999</v>
+        <v>100.25820174</v>
       </c>
       <c r="F66" t="n">
-        <v>100.14458395</v>
+        <v>100.01454552</v>
       </c>
       <c r="G66" t="n">
-        <v>100.07551169</v>
+        <v>100.26595651</v>
       </c>
       <c r="H66" t="n">
-        <v>100.10379007</v>
+        <v>100.02930679</v>
       </c>
       <c r="I66" t="n">
-        <v>99.90513319999999</v>
+        <v>101.29881173</v>
       </c>
       <c r="J66" t="n">
-        <v>98.28811295</v>
+        <v>100.12624921</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>99.59383645</v>
+        <v>100.13438994</v>
       </c>
       <c r="C67" t="n">
-        <v>100.10307141</v>
+        <v>100.17235482</v>
       </c>
       <c r="D67" t="n">
-        <v>100.14732081</v>
+        <v>99.91335655</v>
       </c>
       <c r="E67" t="n">
-        <v>100.94696246</v>
+        <v>100.28228258</v>
       </c>
       <c r="F67" t="n">
-        <v>100.27731143</v>
+        <v>99.99643634</v>
       </c>
       <c r="G67" t="n">
-        <v>100.6788548</v>
+        <v>100.22117696</v>
       </c>
       <c r="H67" t="n">
-        <v>100.01393803</v>
+        <v>100.08687449</v>
       </c>
       <c r="I67" t="n">
-        <v>99.42351896</v>
+        <v>100.88240309</v>
       </c>
       <c r="J67" t="n">
-        <v>99.91971321</v>
+        <v>99.15389964000001</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>100.02012856</v>
+        <v>99.66081610000001</v>
       </c>
       <c r="C68" t="n">
-        <v>100.16070421</v>
+        <v>100.05410922</v>
       </c>
       <c r="D68" t="n">
-        <v>100.5545988</v>
+        <v>100.08974344</v>
       </c>
       <c r="E68" t="n">
-        <v>100.10464895</v>
+        <v>98.92385899</v>
       </c>
       <c r="F68" t="n">
-        <v>100.05418474</v>
+        <v>100.28038241</v>
       </c>
       <c r="G68" t="n">
-        <v>100.38685316</v>
+        <v>100.12088986</v>
       </c>
       <c r="H68" t="n">
-        <v>100.05876938</v>
+        <v>100.09476143</v>
       </c>
       <c r="I68" t="n">
-        <v>99.80597985</v>
+        <v>101.02745459</v>
       </c>
       <c r="J68" t="n">
-        <v>101.4506122</v>
+        <v>100.36861011</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>100.39589589</v>
+        <v>99.82943973</v>
       </c>
       <c r="C69" t="n">
-        <v>100.31397066</v>
+        <v>100.02670918</v>
       </c>
       <c r="D69" t="n">
-        <v>100.30763453</v>
+        <v>100.76242241</v>
       </c>
       <c r="E69" t="n">
-        <v>100.25820174</v>
+        <v>99.79726286</v>
       </c>
       <c r="F69" t="n">
-        <v>100.01454552</v>
+        <v>100.10955826</v>
       </c>
       <c r="G69" t="n">
-        <v>100.26595651</v>
+        <v>100.10376751</v>
       </c>
       <c r="H69" t="n">
-        <v>100.02930679</v>
+        <v>100.07394471</v>
       </c>
       <c r="I69" t="n">
-        <v>101.29881173</v>
+        <v>99.92443829</v>
       </c>
       <c r="J69" t="n">
-        <v>100.12624921</v>
+        <v>102.44016255</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
+          <t>2013-01</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>99.67165627</v>
+        <v>100.11448877</v>
       </c>
       <c r="C70" t="n">
-        <v>100.03949318</v>
+        <v>100.10087392</v>
       </c>
       <c r="D70" t="n">
-        <v>100.08838885</v>
+        <v>100.95887056</v>
       </c>
       <c r="E70" t="n">
-        <v>100.83213093</v>
+        <v>100.57955805</v>
       </c>
       <c r="F70" t="n">
-        <v>100.15640412</v>
+        <v>100.32744439</v>
       </c>
       <c r="G70" t="n">
-        <v>100.1682378</v>
+        <v>100.13519448</v>
       </c>
       <c r="H70" t="n">
-        <v>100.07960455</v>
+        <v>99.95163017</v>
       </c>
       <c r="I70" t="n">
-        <v>101.09330217</v>
+        <v>99.45655762</v>
       </c>
       <c r="J70" t="n">
-        <v>99.64671846</v>
+        <v>102.68942052</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>99.7624576</v>
+        <v>100.4958359</v>
       </c>
       <c r="C71" t="n">
-        <v>100.03967019</v>
+        <v>100.21499236</v>
       </c>
       <c r="D71" t="n">
-        <v>99.92249477</v>
+        <v>101.06938169</v>
       </c>
       <c r="E71" t="n">
-        <v>99.32871822</v>
+        <v>100.71834366</v>
       </c>
       <c r="F71" t="n">
-        <v>100.07481899</v>
+        <v>100.2457662</v>
       </c>
       <c r="G71" t="n">
-        <v>100.14386439</v>
+        <v>100.32098005</v>
       </c>
       <c r="H71" t="n">
-        <v>100.08022532</v>
+        <v>99.86031938000001</v>
       </c>
       <c r="I71" t="n">
-        <v>100.51538933</v>
+        <v>99.26596618000001</v>
       </c>
       <c r="J71" t="n">
-        <v>99.83100725</v>
+        <v>102.74148802</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>100.2884854</v>
+        <v>99.69474561</v>
       </c>
       <c r="C72" t="n">
-        <v>99.95865918</v>
+        <v>99.96932198</v>
       </c>
       <c r="D72" t="n">
-        <v>100.27691749</v>
+        <v>99.11515660000001</v>
       </c>
       <c r="E72" t="n">
-        <v>99.85370163</v>
+        <v>99.51043138999999</v>
       </c>
       <c r="F72" t="n">
-        <v>100.09767955</v>
+        <v>99.97170472000001</v>
       </c>
       <c r="G72" t="n">
-        <v>100.27624758</v>
+        <v>100.60196702</v>
       </c>
       <c r="H72" t="n">
-        <v>99.96640103</v>
+        <v>100.10277959</v>
       </c>
       <c r="I72" t="n">
-        <v>100.02577615</v>
+        <v>100.72580572</v>
       </c>
       <c r="J72" t="n">
-        <v>100.63249988</v>
+        <v>97.11679355</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2013年1月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>100.11448877</v>
+        <v>99.54822677</v>
       </c>
       <c r="C73" t="n">
-        <v>100.10087392</v>
+        <v>100.0027054</v>
       </c>
       <c r="D73" t="n">
-        <v>100.95887056</v>
+        <v>100.28907385</v>
       </c>
       <c r="E73" t="n">
-        <v>100.57955805</v>
+        <v>100.47805047</v>
       </c>
       <c r="F73" t="n">
-        <v>100.32744439</v>
+        <v>100.1017356</v>
       </c>
       <c r="G73" t="n">
-        <v>100.13519448</v>
+        <v>100.22127778</v>
       </c>
       <c r="H73" t="n">
-        <v>99.95163017</v>
+        <v>99.94016305</v>
       </c>
       <c r="I73" t="n">
-        <v>99.45655762</v>
+        <v>100.66548664</v>
       </c>
       <c r="J73" t="n">
-        <v>102.68942052</v>
+        <v>100.53471532</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>100.4958359</v>
+        <v>99.59745791</v>
       </c>
       <c r="C74" t="n">
-        <v>100.21499236</v>
+        <v>100.03750736</v>
       </c>
       <c r="D74" t="n">
-        <v>101.06938169</v>
+        <v>99.42231280999999</v>
       </c>
       <c r="E74" t="n">
-        <v>100.71834366</v>
+        <v>99.65598546</v>
       </c>
       <c r="F74" t="n">
-        <v>100.2457662</v>
+        <v>100.11932341</v>
       </c>
       <c r="G74" t="n">
-        <v>100.32098005</v>
+        <v>100.06060261</v>
       </c>
       <c r="H74" t="n">
-        <v>99.86031938000001</v>
+        <v>99.89046621</v>
       </c>
       <c r="I74" t="n">
-        <v>99.26596618000001</v>
+        <v>100.08473133</v>
       </c>
       <c r="J74" t="n">
-        <v>102.74148802</v>
+        <v>98.42125545</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>99.69474561</v>
+        <v>100.01958324</v>
       </c>
       <c r="C75" t="n">
-        <v>99.96932198</v>
+        <v>100.00201018</v>
       </c>
       <c r="D75" t="n">
-        <v>99.11515660000001</v>
+        <v>99.97755542</v>
       </c>
       <c r="E75" t="n">
-        <v>99.51043138999999</v>
+        <v>100.03558267</v>
       </c>
       <c r="F75" t="n">
-        <v>99.97170472000001</v>
+        <v>100.04858717</v>
       </c>
       <c r="G75" t="n">
-        <v>100.60196702</v>
+        <v>100.08999684</v>
       </c>
       <c r="H75" t="n">
-        <v>100.10277959</v>
+        <v>99.88764888</v>
       </c>
       <c r="I75" t="n">
-        <v>100.72580572</v>
+        <v>99.61252901</v>
       </c>
       <c r="J75" t="n">
-        <v>97.11679355</v>
+        <v>99.9634641</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>99.54822677</v>
+        <v>100.27711873</v>
       </c>
       <c r="C76" t="n">
-        <v>100.0027054</v>
+        <v>99.94571657</v>
       </c>
       <c r="D76" t="n">
-        <v>100.28907385</v>
+        <v>100.12188141</v>
       </c>
       <c r="E76" t="n">
-        <v>100.47805047</v>
+        <v>100.89916034</v>
       </c>
       <c r="F76" t="n">
-        <v>100.1017356</v>
+        <v>100.13168724</v>
       </c>
       <c r="G76" t="n">
-        <v>100.22127778</v>
+        <v>100.29246373</v>
       </c>
       <c r="H76" t="n">
-        <v>99.94016305</v>
+        <v>99.95018498</v>
       </c>
       <c r="I76" t="n">
-        <v>100.66548664</v>
+        <v>99.35288263</v>
       </c>
       <c r="J76" t="n">
-        <v>100.53471532</v>
+        <v>99.95932449999999</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>99.59745791</v>
+        <v>100.15991326</v>
       </c>
       <c r="C77" t="n">
-        <v>100.03750736</v>
+        <v>100.15411447</v>
       </c>
       <c r="D77" t="n">
-        <v>99.42231280999999</v>
+        <v>100.42637064</v>
       </c>
       <c r="E77" t="n">
-        <v>99.65598546</v>
+        <v>99.99472896</v>
       </c>
       <c r="F77" t="n">
-        <v>100.11932341</v>
+        <v>100.05584274</v>
       </c>
       <c r="G77" t="n">
-        <v>100.06060261</v>
+        <v>100.23581445</v>
       </c>
       <c r="H77" t="n">
-        <v>99.89046621</v>
+        <v>100.01113636</v>
       </c>
       <c r="I77" t="n">
-        <v>100.08473133</v>
+        <v>99.89154689999999</v>
       </c>
       <c r="J77" t="n">
-        <v>98.42125545</v>
+        <v>101.09318929</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>100.01958324</v>
+        <v>100.17794626</v>
       </c>
       <c r="C78" t="n">
-        <v>100.00201018</v>
+        <v>100.1960535</v>
       </c>
       <c r="D78" t="n">
-        <v>99.97755542</v>
+        <v>100.8197685</v>
       </c>
       <c r="E78" t="n">
-        <v>100.03558267</v>
+        <v>101.06949127</v>
       </c>
       <c r="F78" t="n">
-        <v>100.04858717</v>
+        <v>100.00545998</v>
       </c>
       <c r="G78" t="n">
-        <v>100.08999684</v>
+        <v>100.29457317</v>
       </c>
       <c r="H78" t="n">
-        <v>99.88764888</v>
+        <v>99.81494767</v>
       </c>
       <c r="I78" t="n">
-        <v>99.61252901</v>
+        <v>101.29382293</v>
       </c>
       <c r="J78" t="n">
-        <v>99.9634641</v>
+        <v>101.50187262</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>100.27711873</v>
+        <v>99.67165627</v>
       </c>
       <c r="C79" t="n">
-        <v>99.94571657</v>
+        <v>100.03949318</v>
       </c>
       <c r="D79" t="n">
-        <v>100.12188141</v>
+        <v>100.08838885</v>
       </c>
       <c r="E79" t="n">
-        <v>100.89916034</v>
+        <v>100.83213093</v>
       </c>
       <c r="F79" t="n">
-        <v>100.13168724</v>
+        <v>100.15640412</v>
       </c>
       <c r="G79" t="n">
-        <v>100.29246373</v>
+        <v>100.1682378</v>
       </c>
       <c r="H79" t="n">
-        <v>99.95018498</v>
+        <v>100.07960455</v>
       </c>
       <c r="I79" t="n">
-        <v>99.35288263</v>
+        <v>101.09330217</v>
       </c>
       <c r="J79" t="n">
-        <v>99.95932449999999</v>
+        <v>99.64671846</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>100.15991326</v>
+        <v>99.7624576</v>
       </c>
       <c r="C80" t="n">
-        <v>100.15411447</v>
+        <v>100.03967019</v>
       </c>
       <c r="D80" t="n">
-        <v>100.42637064</v>
+        <v>99.92249477</v>
       </c>
       <c r="E80" t="n">
-        <v>99.99472896</v>
+        <v>99.32871822</v>
       </c>
       <c r="F80" t="n">
-        <v>100.05584274</v>
+        <v>100.07481899</v>
       </c>
       <c r="G80" t="n">
-        <v>100.23581445</v>
+        <v>100.14386439</v>
       </c>
       <c r="H80" t="n">
-        <v>100.01113636</v>
+        <v>100.08022532</v>
       </c>
       <c r="I80" t="n">
-        <v>99.89154689999999</v>
+        <v>100.51538933</v>
       </c>
       <c r="J80" t="n">
-        <v>101.09318929</v>
+        <v>99.83100725</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>100.17794626</v>
+        <v>100.2884854</v>
       </c>
       <c r="C81" t="n">
-        <v>100.1960535</v>
+        <v>99.95865918</v>
       </c>
       <c r="D81" t="n">
-        <v>100.8197685</v>
+        <v>100.27691749</v>
       </c>
       <c r="E81" t="n">
-        <v>101.06949127</v>
+        <v>99.85370163</v>
       </c>
       <c r="F81" t="n">
-        <v>100.00545998</v>
+        <v>100.09767955</v>
       </c>
       <c r="G81" t="n">
-        <v>100.29457317</v>
+        <v>100.27624758</v>
       </c>
       <c r="H81" t="n">
-        <v>99.81494767</v>
+        <v>99.96640103</v>
       </c>
       <c r="I81" t="n">
-        <v>101.29382293</v>
+        <v>100.02577615</v>
       </c>
       <c r="J81" t="n">
-        <v>101.50187262</v>
+        <v>100.63249988</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>99.69580617</v>
+        <v>100.44287651</v>
       </c>
       <c r="C82" t="n">
-        <v>100.14424341</v>
+        <v>100.31813431</v>
       </c>
       <c r="D82" t="n">
-        <v>100.05281241</v>
+        <v>101.03519641</v>
       </c>
       <c r="E82" t="n">
-        <v>99.94437360000001</v>
+        <v>101.13754387</v>
       </c>
       <c r="F82" t="n">
-        <v>100.23641094</v>
+        <v>100.47323967</v>
       </c>
       <c r="G82" t="n">
-        <v>100.22473747</v>
+        <v>100.17229366</v>
       </c>
       <c r="H82" t="n">
-        <v>100.12548945</v>
+        <v>99.60964539</v>
       </c>
       <c r="I82" t="n">
-        <v>100.98135625</v>
+        <v>99.34835477999999</v>
       </c>
       <c r="J82" t="n">
-        <v>99.798052</v>
+        <v>102.52904508</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>99.2870449</v>
+        <v>99.85306507</v>
       </c>
       <c r="C83" t="n">
-        <v>100.00131494</v>
+        <v>100.19375393</v>
       </c>
       <c r="D83" t="n">
-        <v>99.7614102</v>
+        <v>100.55295204</v>
       </c>
       <c r="E83" t="n">
-        <v>99.22671749</v>
+        <v>99.30868641000001</v>
       </c>
       <c r="F83" t="n">
-        <v>100.02709189</v>
+        <v>99.98468142</v>
       </c>
       <c r="G83" t="n">
-        <v>99.8781907</v>
+        <v>100.31679691</v>
       </c>
       <c r="H83" t="n">
-        <v>99.97317554999999</v>
+        <v>99.95979188</v>
       </c>
       <c r="I83" t="n">
-        <v>100.83687785</v>
+        <v>99.64646557</v>
       </c>
       <c r="J83" t="n">
-        <v>99.61968512999999</v>
+        <v>101.80309056</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>99.67969048</v>
+        <v>99.72179271</v>
       </c>
       <c r="C84" t="n">
-        <v>100.21063443</v>
+        <v>100.14439398</v>
       </c>
       <c r="D84" t="n">
-        <v>100.34836608</v>
+        <v>99.53759628</v>
       </c>
       <c r="E84" t="n">
-        <v>99.71253242</v>
+        <v>99.55155746</v>
       </c>
       <c r="F84" t="n">
-        <v>100.03450067</v>
+        <v>99.98346488999999</v>
       </c>
       <c r="G84" t="n">
-        <v>99.93712639</v>
+        <v>100.24438037</v>
       </c>
       <c r="H84" t="n">
-        <v>99.98908621</v>
+        <v>100.10550342</v>
       </c>
       <c r="I84" t="n">
-        <v>100.09427568</v>
+        <v>100.78439588</v>
       </c>
       <c r="J84" t="n">
-        <v>101.19762684</v>
+        <v>98.49719426</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2014年1月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>100.44287651</v>
+        <v>100.01391513</v>
       </c>
       <c r="C85" t="n">
-        <v>100.31813431</v>
+        <v>100.04844043</v>
       </c>
       <c r="D85" t="n">
-        <v>101.03519641</v>
+        <v>99.67504783</v>
       </c>
       <c r="E85" t="n">
-        <v>101.13754387</v>
+        <v>100.34389368</v>
       </c>
       <c r="F85" t="n">
-        <v>100.47323967</v>
+        <v>100.07929917</v>
       </c>
       <c r="G85" t="n">
-        <v>100.17229366</v>
+        <v>100.08268116</v>
       </c>
       <c r="H85" t="n">
-        <v>99.60964539</v>
+        <v>99.92982752</v>
       </c>
       <c r="I85" t="n">
-        <v>99.34835477999999</v>
+        <v>100.62726006</v>
       </c>
       <c r="J85" t="n">
-        <v>102.52904508</v>
+        <v>98.67919611000001</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>99.85306507</v>
+        <v>100.13136969</v>
       </c>
       <c r="C86" t="n">
-        <v>100.19375393</v>
+        <v>100.14232383</v>
       </c>
       <c r="D86" t="n">
-        <v>100.55295204</v>
+        <v>100.07475802</v>
       </c>
       <c r="E86" t="n">
-        <v>99.30868641000001</v>
+        <v>99.84994981</v>
       </c>
       <c r="F86" t="n">
-        <v>99.98468142</v>
+        <v>100.07494928</v>
       </c>
       <c r="G86" t="n">
-        <v>100.31679691</v>
+        <v>99.99541402</v>
       </c>
       <c r="H86" t="n">
-        <v>99.95979188</v>
+        <v>99.96035655</v>
       </c>
       <c r="I86" t="n">
-        <v>99.64646557</v>
+        <v>100.29654209</v>
       </c>
       <c r="J86" t="n">
-        <v>101.80309056</v>
+        <v>100.11416493</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>99.72179271</v>
+        <v>100.07604489</v>
       </c>
       <c r="C87" t="n">
-        <v>100.14439398</v>
+        <v>100.08626246</v>
       </c>
       <c r="D87" t="n">
-        <v>99.53759628</v>
+        <v>99.85405579</v>
       </c>
       <c r="E87" t="n">
-        <v>99.55155746</v>
+        <v>100.00098661</v>
       </c>
       <c r="F87" t="n">
-        <v>99.98346488999999</v>
+        <v>100.12206382</v>
       </c>
       <c r="G87" t="n">
-        <v>100.24438037</v>
+        <v>100.01635491</v>
       </c>
       <c r="H87" t="n">
-        <v>100.10550342</v>
+        <v>99.90281554000001</v>
       </c>
       <c r="I87" t="n">
-        <v>100.78439588</v>
+        <v>99.76965473</v>
       </c>
       <c r="J87" t="n">
-        <v>98.49719426</v>
+        <v>99.55278934</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>100.01391513</v>
+        <v>100.33836655</v>
       </c>
       <c r="C88" t="n">
-        <v>100.04844043</v>
+        <v>100.12294817</v>
       </c>
       <c r="D88" t="n">
-        <v>99.67504783</v>
+        <v>100.05654568</v>
       </c>
       <c r="E88" t="n">
-        <v>100.34389368</v>
+        <v>100.9677443</v>
       </c>
       <c r="F88" t="n">
-        <v>100.07929917</v>
+        <v>100.03476455</v>
       </c>
       <c r="G88" t="n">
-        <v>100.08268116</v>
+        <v>100.04721861</v>
       </c>
       <c r="H88" t="n">
-        <v>99.92982752</v>
+        <v>99.95429433</v>
       </c>
       <c r="I88" t="n">
-        <v>100.62726006</v>
+        <v>99.38004371</v>
       </c>
       <c r="J88" t="n">
-        <v>98.67919611000001</v>
+        <v>99.82588469</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>100.13136969</v>
+        <v>99.66257770999999</v>
       </c>
       <c r="C89" t="n">
-        <v>100.14232383</v>
+        <v>100.05488336</v>
       </c>
       <c r="D89" t="n">
-        <v>100.07475802</v>
+        <v>100.1340185</v>
       </c>
       <c r="E89" t="n">
-        <v>99.84994981</v>
+        <v>99.75866504</v>
       </c>
       <c r="F89" t="n">
-        <v>100.07494928</v>
+        <v>100.01289298</v>
       </c>
       <c r="G89" t="n">
-        <v>99.99541402</v>
+        <v>100.0783387</v>
       </c>
       <c r="H89" t="n">
-        <v>99.96035655</v>
+        <v>99.85233177000001</v>
       </c>
       <c r="I89" t="n">
-        <v>100.29654209</v>
+        <v>99.86996555</v>
       </c>
       <c r="J89" t="n">
-        <v>100.11416493</v>
+        <v>100.57903463</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>100.07604489</v>
+        <v>99.67194256000001</v>
       </c>
       <c r="C90" t="n">
-        <v>100.08626246</v>
+        <v>100.02513771</v>
       </c>
       <c r="D90" t="n">
-        <v>99.85405579</v>
+        <v>100.4839854</v>
       </c>
       <c r="E90" t="n">
-        <v>100.00098661</v>
+        <v>101.08481693</v>
       </c>
       <c r="F90" t="n">
-        <v>100.12206382</v>
+        <v>100.02976668</v>
       </c>
       <c r="G90" t="n">
-        <v>100.01635491</v>
+        <v>100.10729955</v>
       </c>
       <c r="H90" t="n">
-        <v>99.90281554000001</v>
+        <v>99.83204066</v>
       </c>
       <c r="I90" t="n">
-        <v>99.76965473</v>
+        <v>101.07732556</v>
       </c>
       <c r="J90" t="n">
-        <v>99.55278934</v>
+        <v>100.83066377</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>100.33836655</v>
+        <v>99.69580617</v>
       </c>
       <c r="C91" t="n">
-        <v>100.12294817</v>
+        <v>100.14424341</v>
       </c>
       <c r="D91" t="n">
-        <v>100.05654568</v>
+        <v>100.05281241</v>
       </c>
       <c r="E91" t="n">
-        <v>100.9677443</v>
+        <v>99.94437360000001</v>
       </c>
       <c r="F91" t="n">
-        <v>100.03476455</v>
+        <v>100.23641094</v>
       </c>
       <c r="G91" t="n">
-        <v>100.04721861</v>
+        <v>100.22473747</v>
       </c>
       <c r="H91" t="n">
-        <v>99.95429433</v>
+        <v>100.12548945</v>
       </c>
       <c r="I91" t="n">
-        <v>99.38004371</v>
+        <v>100.98135625</v>
       </c>
       <c r="J91" t="n">
-        <v>99.82588469</v>
+        <v>99.798052</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>99.66257770999999</v>
+        <v>99.2870449</v>
       </c>
       <c r="C92" t="n">
-        <v>100.05488336</v>
+        <v>100.00131494</v>
       </c>
       <c r="D92" t="n">
-        <v>100.1340185</v>
+        <v>99.7614102</v>
       </c>
       <c r="E92" t="n">
-        <v>99.75866504</v>
+        <v>99.22671749</v>
       </c>
       <c r="F92" t="n">
-        <v>100.01289298</v>
+        <v>100.02709189</v>
       </c>
       <c r="G92" t="n">
-        <v>100.0783387</v>
+        <v>99.8781907</v>
       </c>
       <c r="H92" t="n">
-        <v>99.85233177000001</v>
+        <v>99.97317554999999</v>
       </c>
       <c r="I92" t="n">
-        <v>99.86996555</v>
+        <v>100.83687785</v>
       </c>
       <c r="J92" t="n">
-        <v>100.57903463</v>
+        <v>99.61968512999999</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>99.67194256000001</v>
+        <v>99.67969048</v>
       </c>
       <c r="C93" t="n">
-        <v>100.02513771</v>
+        <v>100.21063443</v>
       </c>
       <c r="D93" t="n">
-        <v>100.4839854</v>
+        <v>100.34836608</v>
       </c>
       <c r="E93" t="n">
-        <v>101.08481693</v>
+        <v>99.71253242</v>
       </c>
       <c r="F93" t="n">
-        <v>100.02976668</v>
+        <v>100.03450067</v>
       </c>
       <c r="G93" t="n">
-        <v>100.10729955</v>
+        <v>99.93712639</v>
       </c>
       <c r="H93" t="n">
-        <v>99.83204066</v>
+        <v>99.98908621</v>
       </c>
       <c r="I93" t="n">
-        <v>101.07732556</v>
+        <v>100.09427568</v>
       </c>
       <c r="J93" t="n">
-        <v>100.83066377</v>
+        <v>101.19762684</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>99.96442816</v>
+        <v>99.64759558999999</v>
       </c>
       <c r="C94" t="n">
-        <v>100.23898781</v>
+        <v>100.37412574</v>
       </c>
       <c r="D94" t="n">
-        <v>99.71523006</v>
+        <v>100.27408804</v>
       </c>
       <c r="E94" t="n">
-        <v>99.6583</v>
+        <v>100.43479706</v>
       </c>
       <c r="F94" t="n">
-        <v>100.04894871</v>
+        <v>100.21452614</v>
       </c>
       <c r="G94" t="n">
-        <v>100.03956228</v>
+        <v>100.02101863</v>
       </c>
       <c r="H94" t="n">
-        <v>100.11060976</v>
+        <v>99.96251551</v>
       </c>
       <c r="I94" t="n">
-        <v>100.61771113</v>
+        <v>99.61079739</v>
       </c>
       <c r="J94" t="n">
-        <v>99.02045122</v>
+        <v>100.73216314</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>99.74487377</v>
+        <v>100.48374966</v>
       </c>
       <c r="C95" t="n">
-        <v>100.36816564</v>
+        <v>100.41191739</v>
       </c>
       <c r="D95" t="n">
-        <v>100.00202946</v>
+        <v>101.2505506</v>
       </c>
       <c r="E95" t="n">
-        <v>99.28618461000001</v>
+        <v>101.11896428</v>
       </c>
       <c r="F95" t="n">
-        <v>100.0633185</v>
+        <v>100.6308605</v>
       </c>
       <c r="G95" t="n">
-        <v>99.99946887999999</v>
+        <v>100.04277996</v>
       </c>
       <c r="H95" t="n">
-        <v>100.02386888</v>
+        <v>99.77097236</v>
       </c>
       <c r="I95" t="n">
-        <v>100.58732434</v>
+        <v>99.74261889</v>
       </c>
       <c r="J95" t="n">
-        <v>100.0653534</v>
+        <v>103.03300656</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>99.82663417000001</v>
+        <v>99.82473206</v>
       </c>
       <c r="C96" t="n">
-        <v>100.14751587</v>
+        <v>99.79297517000001</v>
       </c>
       <c r="D96" t="n">
-        <v>100.4944609</v>
+        <v>99.45881764000001</v>
       </c>
       <c r="E96" t="n">
-        <v>99.84031266</v>
+        <v>99.23850811</v>
       </c>
       <c r="F96" t="n">
-        <v>100.0390885</v>
+        <v>99.70281801</v>
       </c>
       <c r="G96" t="n">
-        <v>99.98838768</v>
+        <v>100.41136427</v>
       </c>
       <c r="H96" t="n">
-        <v>99.97645693</v>
+        <v>100.18145807</v>
       </c>
       <c r="I96" t="n">
-        <v>99.89741881</v>
+        <v>100.90871287</v>
       </c>
       <c r="J96" t="n">
-        <v>101.57414101</v>
+        <v>98.35996231999999</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2015年1月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>99.64759558999999</v>
+        <v>100.02578211</v>
       </c>
       <c r="C97" t="n">
-        <v>100.37412574</v>
+        <v>100.25326337</v>
       </c>
       <c r="D97" t="n">
-        <v>100.27408804</v>
+        <v>99.81575322</v>
       </c>
       <c r="E97" t="n">
-        <v>100.43479706</v>
+        <v>100.40480558</v>
       </c>
       <c r="F97" t="n">
-        <v>100.21452614</v>
+        <v>100.01829673</v>
       </c>
       <c r="G97" t="n">
-        <v>100.02101863</v>
+        <v>100.13302662</v>
       </c>
       <c r="H97" t="n">
-        <v>99.96251551</v>
+        <v>99.99170807</v>
       </c>
       <c r="I97" t="n">
-        <v>99.61079739</v>
+        <v>100.44077348</v>
       </c>
       <c r="J97" t="n">
-        <v>100.73216314</v>
+        <v>99.05074863</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>100.48374966</v>
+        <v>100.31526232</v>
       </c>
       <c r="C98" t="n">
-        <v>100.41191739</v>
+        <v>100.12669729</v>
       </c>
       <c r="D98" t="n">
-        <v>101.2505506</v>
+        <v>99.80821124000001</v>
       </c>
       <c r="E98" t="n">
-        <v>101.11896428</v>
+        <v>99.87980276</v>
       </c>
       <c r="F98" t="n">
-        <v>100.6308605</v>
+        <v>99.98385824</v>
       </c>
       <c r="G98" t="n">
-        <v>100.04277996</v>
+        <v>100.15249874</v>
       </c>
       <c r="H98" t="n">
-        <v>99.77097236</v>
+        <v>102.09648921</v>
       </c>
       <c r="I98" t="n">
-        <v>99.74261889</v>
+        <v>100.23713265</v>
       </c>
       <c r="J98" t="n">
-        <v>103.03300656</v>
+        <v>99.04761065</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>99.82473206</v>
+        <v>99.93130621</v>
       </c>
       <c r="C99" t="n">
-        <v>99.79297517000001</v>
+        <v>100.24621152</v>
       </c>
       <c r="D99" t="n">
-        <v>99.45881764000001</v>
+        <v>100.00628748</v>
       </c>
       <c r="E99" t="n">
-        <v>99.23850811</v>
+        <v>100.05305863</v>
       </c>
       <c r="F99" t="n">
-        <v>99.70281801</v>
+        <v>100.10951187</v>
       </c>
       <c r="G99" t="n">
-        <v>100.41136427</v>
+        <v>100.09849318</v>
       </c>
       <c r="H99" t="n">
-        <v>100.18145807</v>
+        <v>101.57590049</v>
       </c>
       <c r="I99" t="n">
-        <v>100.90871287</v>
+        <v>99.81944432</v>
       </c>
       <c r="J99" t="n">
-        <v>98.35996231999999</v>
+        <v>99.81257588</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>100.02578211</v>
+        <v>100.02530605</v>
       </c>
       <c r="C100" t="n">
-        <v>100.25326337</v>
+        <v>100.103872</v>
       </c>
       <c r="D100" t="n">
-        <v>99.81575322</v>
+        <v>100.30839768</v>
       </c>
       <c r="E100" t="n">
-        <v>100.40480558</v>
+        <v>100.87851018</v>
       </c>
       <c r="F100" t="n">
-        <v>100.01829673</v>
+        <v>100.05776949</v>
       </c>
       <c r="G100" t="n">
-        <v>100.13302662</v>
+        <v>100.10745895</v>
       </c>
       <c r="H100" t="n">
-        <v>99.99170807</v>
+        <v>100.05821761</v>
       </c>
       <c r="I100" t="n">
-        <v>100.44077348</v>
+        <v>99.42568885</v>
       </c>
       <c r="J100" t="n">
-        <v>99.05074863</v>
+        <v>100.6595797</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>100.31526232</v>
+        <v>99.37700509</v>
       </c>
       <c r="C101" t="n">
-        <v>100.12669729</v>
+        <v>100.11755843</v>
       </c>
       <c r="D101" t="n">
-        <v>99.80821124000001</v>
+        <v>100.4420369</v>
       </c>
       <c r="E101" t="n">
-        <v>99.87980276</v>
+        <v>99.92062652</v>
       </c>
       <c r="F101" t="n">
-        <v>99.98385824</v>
+        <v>99.96493864999999</v>
       </c>
       <c r="G101" t="n">
-        <v>100.15249874</v>
+        <v>100.08281399</v>
       </c>
       <c r="H101" t="n">
-        <v>102.09648921</v>
+        <v>100.03429173</v>
       </c>
       <c r="I101" t="n">
-        <v>100.23713265</v>
+        <v>99.85827503</v>
       </c>
       <c r="J101" t="n">
-        <v>99.04761065</v>
+        <v>101.49926174</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>99.93130621</v>
+        <v>99.6425897</v>
       </c>
       <c r="C102" t="n">
-        <v>100.24621152</v>
+        <v>100.17240293</v>
       </c>
       <c r="D102" t="n">
-        <v>100.00628748</v>
+        <v>100.11550399</v>
       </c>
       <c r="E102" t="n">
-        <v>100.05305863</v>
+        <v>100.5175061</v>
       </c>
       <c r="F102" t="n">
-        <v>100.10951187</v>
+        <v>100.07595607</v>
       </c>
       <c r="G102" t="n">
-        <v>100.09849318</v>
+        <v>100.12134046</v>
       </c>
       <c r="H102" t="n">
-        <v>101.57590049</v>
+        <v>99.87199375</v>
       </c>
       <c r="I102" t="n">
-        <v>99.81944432</v>
+        <v>100.91849726</v>
       </c>
       <c r="J102" t="n">
-        <v>99.81257588</v>
+        <v>99.91065616</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>100.02530605</v>
+        <v>99.96442816</v>
       </c>
       <c r="C103" t="n">
-        <v>100.103872</v>
+        <v>100.23898781</v>
       </c>
       <c r="D103" t="n">
-        <v>100.30839768</v>
+        <v>99.71523006</v>
       </c>
       <c r="E103" t="n">
-        <v>100.87851018</v>
+        <v>99.6583</v>
       </c>
       <c r="F103" t="n">
-        <v>100.05776949</v>
+        <v>100.04894871</v>
       </c>
       <c r="G103" t="n">
-        <v>100.10745895</v>
+        <v>100.03956228</v>
       </c>
       <c r="H103" t="n">
-        <v>100.05821761</v>
+        <v>100.11060976</v>
       </c>
       <c r="I103" t="n">
-        <v>99.42568885</v>
+        <v>100.61771113</v>
       </c>
       <c r="J103" t="n">
-        <v>100.6595797</v>
+        <v>99.02045122</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>99.37700509</v>
+        <v>99.74487377</v>
       </c>
       <c r="C104" t="n">
-        <v>100.11755843</v>
+        <v>100.36816564</v>
       </c>
       <c r="D104" t="n">
-        <v>100.4420369</v>
+        <v>100.00202946</v>
       </c>
       <c r="E104" t="n">
-        <v>99.92062652</v>
+        <v>99.28618461000001</v>
       </c>
       <c r="F104" t="n">
-        <v>99.96493864999999</v>
+        <v>100.0633185</v>
       </c>
       <c r="G104" t="n">
-        <v>100.08281399</v>
+        <v>99.99946887999999</v>
       </c>
       <c r="H104" t="n">
-        <v>100.03429173</v>
+        <v>100.02386888</v>
       </c>
       <c r="I104" t="n">
-        <v>99.85827503</v>
+        <v>100.58732434</v>
       </c>
       <c r="J104" t="n">
-        <v>101.49926174</v>
+        <v>100.0653534</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>99.6425897</v>
+        <v>99.82663417000001</v>
       </c>
       <c r="C105" t="n">
-        <v>100.17240293</v>
+        <v>100.14751587</v>
       </c>
       <c r="D105" t="n">
-        <v>100.11550399</v>
+        <v>100.4944609</v>
       </c>
       <c r="E105" t="n">
-        <v>100.5175061</v>
+        <v>99.84031266</v>
       </c>
       <c r="F105" t="n">
-        <v>100.07595607</v>
+        <v>100.0390885</v>
       </c>
       <c r="G105" t="n">
-        <v>100.12134046</v>
+        <v>99.98838768</v>
       </c>
       <c r="H105" t="n">
-        <v>99.87199375</v>
+        <v>99.97645693</v>
       </c>
       <c r="I105" t="n">
-        <v>100.91849726</v>
+        <v>99.89741881</v>
       </c>
       <c r="J105" t="n">
-        <v>99.91065616</v>
+        <v>101.57414101</v>
       </c>
     </row>
   </sheetData>

--- a/data_month/zb/价格指数/居民消费价格分类指数(上月=100)/城市居民消费价格分类指数(上月=100)(-2015).xlsx
+++ b/data_month/zb/价格指数/居民消费价格分类指数(上月=100)/城市居民消费价格分类指数(上月=100)(-2015).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J105"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,638 +483,638 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2006-12</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99.90000000000001</v>
+        <v>100.00125543</v>
       </c>
       <c r="C2" t="n">
-        <v>100.1</v>
+        <v>100.54709432</v>
       </c>
       <c r="D2" t="n">
-        <v>101.4</v>
+        <v>100.65276986</v>
       </c>
       <c r="E2" t="n">
-        <v>99.7</v>
+        <v>100.15811844</v>
       </c>
       <c r="F2" t="n">
-        <v>100.1</v>
+        <v>99.98545003</v>
       </c>
       <c r="G2" t="n">
-        <v>100.6</v>
+        <v>100.77620927</v>
       </c>
       <c r="H2" t="n">
-        <v>100.4</v>
+        <v>100.21706233</v>
       </c>
       <c r="I2" t="n">
-        <v>100.1</v>
+        <v>100.94959971</v>
       </c>
       <c r="J2" t="n">
-        <v>103.8</v>
+        <v>101.10855591</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2007-01</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.8</v>
+        <v>99.92014592</v>
       </c>
       <c r="C3" t="n">
-        <v>100.2</v>
+        <v>100.66525121</v>
       </c>
       <c r="D3" t="n">
-        <v>100.6</v>
+        <v>100.96172275</v>
       </c>
       <c r="E3" t="n">
-        <v>99.90000000000001</v>
+        <v>98.75544676</v>
       </c>
       <c r="F3" t="n">
-        <v>100.1</v>
+        <v>100.46020601</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>101.59205827</v>
       </c>
       <c r="H3" t="n">
-        <v>100.2</v>
+        <v>100.27138275</v>
       </c>
       <c r="I3" t="n">
-        <v>99.40000000000001</v>
+        <v>101.6532217</v>
       </c>
       <c r="J3" t="n">
-        <v>102.1</v>
+        <v>101.89306847</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2007-02</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100.2</v>
+        <v>100.07648535</v>
       </c>
       <c r="C4" t="n">
-        <v>100.2</v>
+        <v>100.44057146</v>
       </c>
       <c r="D4" t="n">
-        <v>101</v>
+        <v>100.5209307</v>
       </c>
       <c r="E4" t="n">
-        <v>101.3</v>
+        <v>99.66032543</v>
       </c>
       <c r="F4" t="n">
-        <v>100.4</v>
+        <v>100.50354081</v>
       </c>
       <c r="G4" t="n">
-        <v>99.8</v>
+        <v>100.67390274</v>
       </c>
       <c r="H4" t="n">
-        <v>100.2</v>
+        <v>100.29384926</v>
       </c>
       <c r="I4" t="n">
-        <v>98.40000000000001</v>
+        <v>100.48891991</v>
       </c>
       <c r="J4" t="n">
-        <v>102.9</v>
+        <v>100.9452644</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007-03</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>99.59999999999999</v>
+        <v>99.825954</v>
       </c>
       <c r="C5" t="n">
-        <v>100.1</v>
+        <v>100.32040306</v>
       </c>
       <c r="D5" t="n">
-        <v>99.7</v>
+        <v>100.62362539</v>
       </c>
       <c r="E5" t="n">
-        <v>98.8</v>
+        <v>100.11848453</v>
       </c>
       <c r="F5" t="n">
-        <v>99.90000000000001</v>
+        <v>100.06556673</v>
       </c>
       <c r="G5" t="n">
-        <v>100.1</v>
+        <v>100.36575092</v>
       </c>
       <c r="H5" t="n">
-        <v>100</v>
+        <v>100.23348131</v>
       </c>
       <c r="I5" t="n">
-        <v>99.59999999999999</v>
+        <v>99.11829649000001</v>
       </c>
       <c r="J5" t="n">
-        <v>99.7</v>
+        <v>101.88732361</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2007-04</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>99.8</v>
+        <v>100.31868772</v>
       </c>
       <c r="C6" t="n">
-        <v>100.2</v>
+        <v>100.28061011</v>
       </c>
       <c r="D6" t="n">
-        <v>100</v>
+        <v>101.21269356</v>
       </c>
       <c r="E6" t="n">
-        <v>100.7</v>
+        <v>101.23152154</v>
       </c>
       <c r="F6" t="n">
-        <v>100.2</v>
+        <v>100.16126545</v>
       </c>
       <c r="G6" t="n">
-        <v>100.5</v>
+        <v>100.13504072</v>
       </c>
       <c r="H6" t="n">
-        <v>100.1</v>
+        <v>100.044375</v>
       </c>
       <c r="I6" t="n">
-        <v>100.5</v>
+        <v>98.35309977999999</v>
       </c>
       <c r="J6" t="n">
-        <v>99.40000000000001</v>
+        <v>103.3769426</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007-05</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.78611284</v>
+        <v>99.6062604</v>
       </c>
       <c r="C7" t="n">
-        <v>100.43677511</v>
+        <v>100.23088997</v>
       </c>
       <c r="D7" t="n">
-        <v>100.23397092</v>
+        <v>99.31992796999999</v>
       </c>
       <c r="E7" t="n">
-        <v>100.16479</v>
+        <v>98.83976848</v>
       </c>
       <c r="F7" t="n">
-        <v>100.11808547</v>
+        <v>99.77011675</v>
       </c>
       <c r="G7" t="n">
-        <v>100.26115211</v>
+        <v>99.93150581</v>
       </c>
       <c r="H7" t="n">
-        <v>100.0464108</v>
+        <v>100.19590771</v>
       </c>
       <c r="I7" t="n">
-        <v>100.22712325</v>
+        <v>100.27352488</v>
       </c>
       <c r="J7" t="n">
-        <v>100.37023977</v>
+        <v>98.46491519</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2007-06</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>99.7</v>
+        <v>99.92584076</v>
       </c>
       <c r="C8" t="n">
-        <v>100.3</v>
+        <v>100.35410447</v>
       </c>
       <c r="D8" t="n">
-        <v>100.3</v>
+        <v>100.21542836</v>
       </c>
       <c r="E8" t="n">
-        <v>99.09999999999999</v>
+        <v>100.60892078</v>
       </c>
       <c r="F8" t="n">
-        <v>100.1</v>
+        <v>99.99296605000001</v>
       </c>
       <c r="G8" t="n">
-        <v>100.5</v>
+        <v>101.02761285</v>
       </c>
       <c r="H8" t="n">
-        <v>100.1</v>
+        <v>99.99517523</v>
       </c>
       <c r="I8" t="n">
-        <v>99.5</v>
+        <v>100.07285673</v>
       </c>
       <c r="J8" t="n">
-        <v>101.1</v>
+        <v>99.87765836</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007-08</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>99.8</v>
+        <v>99.86827287</v>
       </c>
       <c r="C9" t="n">
-        <v>100.2</v>
+        <v>100.45100315</v>
       </c>
       <c r="D9" t="n">
-        <v>101.1</v>
+        <v>99.90987636</v>
       </c>
       <c r="E9" t="n">
-        <v>100.1</v>
+        <v>99.94336014</v>
       </c>
       <c r="F9" t="n">
-        <v>100.3</v>
+        <v>99.99250909</v>
       </c>
       <c r="G9" t="n">
-        <v>100.6</v>
+        <v>100.23647183</v>
       </c>
       <c r="H9" t="n">
-        <v>100.2</v>
+        <v>100.07943334</v>
       </c>
       <c r="I9" t="n">
-        <v>99.09999999999999</v>
+        <v>100.16352893</v>
       </c>
       <c r="J9" t="n">
-        <v>103.1</v>
+        <v>99.51102195</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2007-09</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.7</v>
+        <v>99.75173278</v>
       </c>
       <c r="C10" t="n">
-        <v>100.2</v>
+        <v>100.23677495</v>
       </c>
       <c r="D10" t="n">
-        <v>100.3</v>
+        <v>99.42223672999999</v>
       </c>
       <c r="E10" t="n">
-        <v>99.90000000000001</v>
+        <v>99.94881595</v>
       </c>
       <c r="F10" t="n">
-        <v>100.2</v>
+        <v>100.23340021</v>
       </c>
       <c r="G10" t="n">
-        <v>100.8</v>
+        <v>100.04709822</v>
       </c>
       <c r="H10" t="n">
-        <v>100.1</v>
+        <v>100.09142929</v>
       </c>
       <c r="I10" t="n">
-        <v>100.8</v>
+        <v>99.61049004</v>
       </c>
       <c r="J10" t="n">
-        <v>100.3</v>
+        <v>98.33931848</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2007-11</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100.2</v>
+        <v>100.08474639</v>
       </c>
       <c r="C11" t="n">
-        <v>100.3</v>
+        <v>100.08529022</v>
       </c>
       <c r="D11" t="n">
-        <v>100.7</v>
+        <v>100.36617893</v>
       </c>
       <c r="E11" t="n">
-        <v>98.7</v>
+        <v>101.05874228</v>
       </c>
       <c r="F11" t="n">
-        <v>100.3</v>
+        <v>100.04791053</v>
       </c>
       <c r="G11" t="n">
-        <v>101.4</v>
+        <v>100.10764287</v>
       </c>
       <c r="H11" t="n">
-        <v>100.3</v>
+        <v>100.13190744</v>
       </c>
       <c r="I11" t="n">
-        <v>100.8</v>
+        <v>99.22041652</v>
       </c>
       <c r="J11" t="n">
-        <v>101.4</v>
+        <v>100.80465946</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2007-12</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>100.1</v>
+        <v>99.80568843</v>
       </c>
       <c r="C12" t="n">
-        <v>100.2</v>
+        <v>100.12353383</v>
       </c>
       <c r="D12" t="n">
-        <v>101</v>
+        <v>100.60408476</v>
       </c>
       <c r="E12" t="n">
-        <v>99.59999999999999</v>
+        <v>100.25970173</v>
       </c>
       <c r="F12" t="n">
-        <v>100.2</v>
+        <v>100.14803525</v>
       </c>
       <c r="G12" t="n">
-        <v>100.4</v>
+        <v>100.18261183</v>
       </c>
       <c r="H12" t="n">
-        <v>100.4</v>
+        <v>100.22808321</v>
       </c>
       <c r="I12" t="n">
-        <v>99.8</v>
+        <v>99.37249319</v>
       </c>
       <c r="J12" t="n">
-        <v>102.6</v>
+        <v>101.80170971</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2008-01</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100</v>
+        <v>99.89920026999999</v>
       </c>
       <c r="C13" t="n">
-        <v>100.2</v>
+        <v>100.25167103</v>
       </c>
       <c r="D13" t="n">
-        <v>101.2</v>
+        <v>100.5109643</v>
       </c>
       <c r="E13" t="n">
-        <v>100.2</v>
+        <v>100.04216778</v>
       </c>
       <c r="F13" t="n">
-        <v>100.4</v>
+        <v>99.95318546</v>
       </c>
       <c r="G13" t="n">
-        <v>100.2</v>
+        <v>100.40198818</v>
       </c>
       <c r="H13" t="n">
-        <v>100.6</v>
+        <v>100.13832869</v>
       </c>
       <c r="I13" t="n">
-        <v>99.09999999999999</v>
+        <v>100.6318564</v>
       </c>
       <c r="J13" t="n">
-        <v>103.4</v>
+        <v>101.11862101</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2008-02</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>99.90000000000001</v>
+        <v>99.73055752</v>
       </c>
       <c r="C14" t="n">
-        <v>100.5</v>
+        <v>99.8276408</v>
       </c>
       <c r="D14" t="n">
-        <v>102.7</v>
+        <v>100.10902507</v>
       </c>
       <c r="E14" t="n">
-        <v>100.6</v>
+        <v>100.24033164</v>
       </c>
       <c r="F14" t="n">
-        <v>100.4</v>
+        <v>100.087814</v>
       </c>
       <c r="G14" t="n">
-        <v>100.2</v>
+        <v>100.0235121</v>
       </c>
       <c r="H14" t="n">
-        <v>100.4</v>
+        <v>100.55229535</v>
       </c>
       <c r="I14" t="n">
-        <v>98.90000000000001</v>
+        <v>101.57088697</v>
       </c>
       <c r="J14" t="n">
-        <v>107.4</v>
+        <v>99.89329615</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2008-03</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.3</v>
+        <v>99.75681011</v>
       </c>
       <c r="C15" t="n">
-        <v>100.4</v>
+        <v>100.23219488</v>
       </c>
       <c r="D15" t="n">
-        <v>99.2</v>
+        <v>99.81528174</v>
       </c>
       <c r="E15" t="n">
-        <v>98.90000000000001</v>
+        <v>99.07815816999999</v>
       </c>
       <c r="F15" t="n">
-        <v>100.3</v>
+        <v>100.31165199</v>
       </c>
       <c r="G15" t="n">
-        <v>100.2</v>
+        <v>99.97721102</v>
       </c>
       <c r="H15" t="n">
-        <v>100.2</v>
+        <v>100.40562548</v>
       </c>
       <c r="I15" t="n">
-        <v>100.2</v>
+        <v>101.42894556</v>
       </c>
       <c r="J15" t="n">
-        <v>98</v>
+        <v>99.31764978</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2008-04</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.67943439</v>
+        <v>99.88001693</v>
       </c>
       <c r="C16" t="n">
-        <v>100.14818786</v>
+        <v>99.87940077</v>
       </c>
       <c r="D16" t="n">
-        <v>100.1184755</v>
+        <v>100.33019663</v>
       </c>
       <c r="E16" t="n">
-        <v>100.72827311</v>
+        <v>99.64129099</v>
       </c>
       <c r="F16" t="n">
-        <v>100.3462988</v>
+        <v>99.95899224</v>
       </c>
       <c r="G16" t="n">
-        <v>100.19848316</v>
+        <v>99.71425106</v>
       </c>
       <c r="H16" t="n">
-        <v>100.1621488</v>
+        <v>100.33397435</v>
       </c>
       <c r="I16" t="n">
-        <v>100.27392901</v>
+        <v>100.17988554</v>
       </c>
       <c r="J16" t="n">
-        <v>99.91951312</v>
+        <v>101.35622699</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2008-05</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>99.8</v>
+        <v>100.50332319</v>
       </c>
       <c r="C17" t="n">
-        <v>100.1</v>
+        <v>100.23090354</v>
       </c>
       <c r="D17" t="n">
-        <v>99.5</v>
+        <v>101.03235747</v>
       </c>
       <c r="E17" t="n">
-        <v>99.40000000000001</v>
+        <v>100.51058319</v>
       </c>
       <c r="F17" t="n">
-        <v>100.3</v>
+        <v>100.42111891</v>
       </c>
       <c r="G17" t="n">
-        <v>100.3</v>
+        <v>100.28318579</v>
       </c>
       <c r="H17" t="n">
-        <v>100.3</v>
+        <v>100.21816779</v>
       </c>
       <c r="I17" t="n">
-        <v>100</v>
+        <v>99.28858323</v>
       </c>
       <c r="J17" t="n">
-        <v>98.7</v>
+        <v>102.8399599</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2008-06</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>100.2</v>
+        <v>100.01795636</v>
       </c>
       <c r="C18" t="n">
-        <v>100.1</v>
+        <v>100.14181776</v>
       </c>
       <c r="D18" t="n">
-        <v>99.8</v>
+        <v>101.21294619</v>
       </c>
       <c r="E18" t="n">
-        <v>99.5</v>
+        <v>100.36664858</v>
       </c>
       <c r="F18" t="n">
-        <v>100.3</v>
+        <v>100.20169163</v>
       </c>
       <c r="G18" t="n">
-        <v>100.7</v>
+        <v>100.31812044</v>
       </c>
       <c r="H18" t="n">
-        <v>100.3</v>
+        <v>100.19844646</v>
       </c>
       <c r="I18" t="n">
-        <v>99.5</v>
+        <v>99.23801266</v>
       </c>
       <c r="J18" t="n">
-        <v>99.2</v>
+        <v>103.68187099</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2008-07</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>100.7</v>
+        <v>100.1</v>
       </c>
       <c r="C19" t="n">
         <v>100.3</v>
       </c>
       <c r="D19" t="n">
-        <v>100.1</v>
+        <v>99.8</v>
       </c>
       <c r="E19" t="n">
-        <v>100.8</v>
+        <v>99.2</v>
       </c>
       <c r="F19" t="n">
         <v>100.3</v>
       </c>
       <c r="G19" t="n">
-        <v>100.2</v>
+        <v>100.6</v>
       </c>
       <c r="H19" t="n">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
       <c r="I19" t="n">
-        <v>98.90000000000001</v>
+        <v>100.7</v>
       </c>
       <c r="J19" t="n">
-        <v>99.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2008-09</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>99.8</v>
+        <v>100.4</v>
       </c>
       <c r="C20" t="n">
-        <v>100</v>
+        <v>100.3</v>
       </c>
       <c r="D20" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="E20" t="n">
-        <v>100</v>
+        <v>100.5</v>
       </c>
       <c r="F20" t="n">
         <v>100.2</v>
       </c>
       <c r="G20" t="n">
-        <v>100.1</v>
+        <v>100.4</v>
       </c>
       <c r="H20" t="n">
         <v>100.3</v>
@@ -1123,2897 +1123,1809 @@
         <v>100.7</v>
       </c>
       <c r="J20" t="n">
-        <v>99.8</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2008-10</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>99.8</v>
+        <v>100.1</v>
       </c>
       <c r="C21" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="D21" t="n">
         <v>100.1</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
+        <v>100</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="G21" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="H21" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="I21" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="J21" t="n">
         <v>99.7</v>
-      </c>
-      <c r="E21" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="G21" t="n">
-        <v>99</v>
-      </c>
-      <c r="H21" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="J21" t="n">
-        <v>99.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2008-11</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="C22" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>100</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="G22" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="I22" t="n">
         <v>99.8</v>
       </c>
-      <c r="D22" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="E22" t="n">
-        <v>98.8</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>100.5</v>
-      </c>
       <c r="J22" t="n">
-        <v>99.09999999999999</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2008-12</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>99.33901999</v>
+        <v>100.01264656</v>
       </c>
       <c r="C23" t="n">
-        <v>99.96268572</v>
+        <v>100.26093541</v>
       </c>
       <c r="D23" t="n">
-        <v>99.67668150999999</v>
+        <v>100.46423542</v>
       </c>
       <c r="E23" t="n">
-        <v>99.14468895</v>
+        <v>100.76972356</v>
       </c>
       <c r="F23" t="n">
-        <v>99.94782120000001</v>
+        <v>100.24181946</v>
       </c>
       <c r="G23" t="n">
-        <v>97.5947869</v>
+        <v>100.10204676</v>
       </c>
       <c r="H23" t="n">
-        <v>100.05569421</v>
+        <v>100.21359342</v>
       </c>
       <c r="I23" t="n">
-        <v>99.18701788</v>
+        <v>99.38307207</v>
       </c>
       <c r="J23" t="n">
-        <v>100.79092869</v>
+        <v>101.14882963</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2009-01</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>98.90791126000001</v>
+        <v>99.97293184</v>
       </c>
       <c r="C24" t="n">
-        <v>100.13977947</v>
+        <v>100.62093757</v>
       </c>
       <c r="D24" t="n">
-        <v>100.97364292</v>
+        <v>100.3090745</v>
       </c>
       <c r="E24" t="n">
-        <v>101.45340755</v>
+        <v>100.09704629</v>
       </c>
       <c r="F24" t="n">
-        <v>100.18099598</v>
+        <v>100.2190795</v>
       </c>
       <c r="G24" t="n">
-        <v>99.29658764</v>
+        <v>100.28255811</v>
       </c>
       <c r="H24" t="n">
-        <v>100.02535427</v>
+        <v>100.20789303</v>
       </c>
       <c r="I24" t="n">
-        <v>98.62264084</v>
+        <v>99.98298186</v>
       </c>
       <c r="J24" t="n">
-        <v>103.37865174</v>
+        <v>100.54783829</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2009-02</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>99.7</v>
+        <v>99.84958856</v>
       </c>
       <c r="C25" t="n">
-        <v>100.2</v>
+        <v>100.15827237</v>
       </c>
       <c r="D25" t="n">
-        <v>100</v>
+        <v>100.44003221</v>
       </c>
       <c r="E25" t="n">
-        <v>98.59999999999999</v>
+        <v>99.64027895</v>
       </c>
       <c r="F25" t="n">
-        <v>99.8</v>
+        <v>100.16072298</v>
       </c>
       <c r="G25" t="n">
-        <v>99.7</v>
+        <v>100.17483334</v>
       </c>
       <c r="H25" t="n">
-        <v>100</v>
+        <v>100.68227365</v>
       </c>
       <c r="I25" t="n">
-        <v>99.59999999999999</v>
+        <v>100.91408514</v>
       </c>
       <c r="J25" t="n">
-        <v>100.9</v>
+        <v>101.09519293</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2009-04</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>99.9532258</v>
+        <v>100.13438994</v>
       </c>
       <c r="C26" t="n">
-        <v>100.10577693</v>
+        <v>100.17235482</v>
       </c>
       <c r="D26" t="n">
-        <v>99.77091693</v>
+        <v>99.91335655</v>
       </c>
       <c r="E26" t="n">
-        <v>100.38962319</v>
+        <v>100.28228258</v>
       </c>
       <c r="F26" t="n">
-        <v>99.74112913</v>
+        <v>99.99643634</v>
       </c>
       <c r="G26" t="n">
-        <v>99.86056102000001</v>
+        <v>100.22117696</v>
       </c>
       <c r="H26" t="n">
-        <v>99.97557942</v>
+        <v>100.08687449</v>
       </c>
       <c r="I26" t="n">
-        <v>100.32718239</v>
+        <v>100.88240309</v>
       </c>
       <c r="J26" t="n">
-        <v>99.17407079</v>
+        <v>99.15389964000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2009-05</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>99.71604747000001</v>
+        <v>99.66081610000001</v>
       </c>
       <c r="C27" t="n">
-        <v>100.06630763</v>
+        <v>100.05410922</v>
       </c>
       <c r="D27" t="n">
-        <v>99.71586988999999</v>
+        <v>100.08974344</v>
       </c>
       <c r="E27" t="n">
-        <v>99.70008385</v>
+        <v>98.92385899</v>
       </c>
       <c r="F27" t="n">
-        <v>99.81654179</v>
+        <v>100.28038241</v>
       </c>
       <c r="G27" t="n">
-        <v>99.72931979000001</v>
+        <v>100.12088986</v>
       </c>
       <c r="H27" t="n">
-        <v>100.03767833</v>
+        <v>100.09476143</v>
       </c>
       <c r="I27" t="n">
-        <v>100.05700517</v>
+        <v>101.02745459</v>
       </c>
       <c r="J27" t="n">
-        <v>99.46952237000001</v>
+        <v>100.36861011</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2009-07</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.46088521</v>
+        <v>99.82943973</v>
       </c>
       <c r="C28" t="n">
-        <v>100.01773625</v>
+        <v>100.02670918</v>
       </c>
       <c r="D28" t="n">
-        <v>99.99062845</v>
+        <v>100.76242241</v>
       </c>
       <c r="E28" t="n">
-        <v>100.86987954</v>
+        <v>99.79726286</v>
       </c>
       <c r="F28" t="n">
-        <v>99.72735575</v>
+        <v>100.10955826</v>
       </c>
       <c r="G28" t="n">
-        <v>100.36979418</v>
+        <v>100.10376751</v>
       </c>
       <c r="H28" t="n">
-        <v>100.2401412</v>
+        <v>100.07394471</v>
       </c>
       <c r="I28" t="n">
-        <v>98.87538221</v>
+        <v>99.92443829</v>
       </c>
       <c r="J28" t="n">
-        <v>99.67189996</v>
+        <v>102.44016255</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2009-08</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>99.71692422</v>
+        <v>100.32266688</v>
       </c>
       <c r="C29" t="n">
-        <v>100.13331434</v>
+        <v>100.05219927</v>
       </c>
       <c r="D29" t="n">
-        <v>100.44252063</v>
+        <v>101.48847592</v>
       </c>
       <c r="E29" t="n">
-        <v>100.05479564</v>
+        <v>101.21692986</v>
       </c>
       <c r="F29" t="n">
-        <v>99.9433296</v>
+        <v>100.49394018</v>
       </c>
       <c r="G29" t="n">
-        <v>100.52708215</v>
+        <v>100.17725192</v>
       </c>
       <c r="H29" t="n">
-        <v>100.35982408</v>
+        <v>100.07303674</v>
       </c>
       <c r="I29" t="n">
-        <v>99.74599253</v>
+        <v>98.80393699</v>
       </c>
       <c r="J29" t="n">
-        <v>101.19884041</v>
+        <v>104.21066042</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2009-09</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>100.05264575</v>
+        <v>100.03057582</v>
       </c>
       <c r="C30" t="n">
-        <v>100.15935594</v>
+        <v>100.30493662</v>
       </c>
       <c r="D30" t="n">
-        <v>100.4032771</v>
+        <v>99.87991363</v>
       </c>
       <c r="E30" t="n">
-        <v>100.01386193</v>
+        <v>98.99079509000001</v>
       </c>
       <c r="F30" t="n">
-        <v>100.0204099</v>
+        <v>100.11126919</v>
       </c>
       <c r="G30" t="n">
-        <v>100.54125664</v>
+        <v>100.50273619</v>
       </c>
       <c r="H30" t="n">
-        <v>100.30943557</v>
+        <v>100.1719893</v>
       </c>
       <c r="I30" t="n">
-        <v>101.16324333</v>
+        <v>99.74836059</v>
       </c>
       <c r="J30" t="n">
-        <v>100.55616538</v>
+        <v>99.65217112000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2009-10</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.80108401</v>
+        <v>100.19645624</v>
       </c>
       <c r="C31" t="n">
-        <v>100.1853886</v>
+        <v>100.05978034</v>
       </c>
       <c r="D31" t="n">
-        <v>99.93395567</v>
+        <v>100.24716225</v>
       </c>
       <c r="E31" t="n">
-        <v>100.60874275</v>
+        <v>99.83166186</v>
       </c>
       <c r="F31" t="n">
-        <v>99.87449122</v>
+        <v>99.95340709</v>
       </c>
       <c r="G31" t="n">
-        <v>100.37304103</v>
+        <v>100.41956578</v>
       </c>
       <c r="H31" t="n">
-        <v>100.04780517</v>
+        <v>100.18861518</v>
       </c>
       <c r="I31" t="n">
-        <v>100.84643237</v>
+        <v>100.5770908</v>
       </c>
       <c r="J31" t="n">
-        <v>99.20906041000001</v>
+        <v>100.33235396</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2009-11</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>100.142833</v>
+        <v>100.39120339</v>
       </c>
       <c r="C32" t="n">
-        <v>100.31064895</v>
+        <v>100.2602253</v>
       </c>
       <c r="D32" t="n">
-        <v>100.31240399</v>
+        <v>99.95491527</v>
       </c>
       <c r="E32" t="n">
-        <v>99.03132303</v>
+        <v>100.76429062</v>
       </c>
       <c r="F32" t="n">
-        <v>100.17564241</v>
+        <v>100.18575702</v>
       </c>
       <c r="G32" t="n">
-        <v>100.8736317</v>
+        <v>100.23188644</v>
       </c>
       <c r="H32" t="n">
-        <v>100.15393059</v>
+        <v>100.17634901</v>
       </c>
       <c r="I32" t="n">
-        <v>101.01600243</v>
+        <v>100.44982105</v>
       </c>
       <c r="J32" t="n">
-        <v>100.48266841</v>
+        <v>99.09215958</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2009-12</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>100.0585051</v>
+        <v>99.67685729</v>
       </c>
       <c r="C33" t="n">
-        <v>100.48255806</v>
+        <v>100.07665286</v>
       </c>
       <c r="D33" t="n">
-        <v>101.03217284</v>
+        <v>99.73287988</v>
       </c>
       <c r="E33" t="n">
-        <v>99.52305266</v>
+        <v>99.89458046</v>
       </c>
       <c r="F33" t="n">
-        <v>99.93698817000001</v>
+        <v>100.12206461</v>
       </c>
       <c r="G33" t="n">
-        <v>100.57040101</v>
+        <v>99.9887047</v>
       </c>
       <c r="H33" t="n">
-        <v>100.092937</v>
+        <v>100.16982156</v>
       </c>
       <c r="I33" t="n">
-        <v>99.66515002</v>
+        <v>100.00684166</v>
       </c>
       <c r="J33" t="n">
-        <v>102.97477099</v>
+        <v>99.27358912</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2010-01</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.825954</v>
+        <v>99.55586889</v>
       </c>
       <c r="C34" t="n">
-        <v>100.32040306</v>
+        <v>100.12999069</v>
       </c>
       <c r="D34" t="n">
-        <v>100.62362539</v>
+        <v>99.42299027999999</v>
       </c>
       <c r="E34" t="n">
-        <v>100.11848453</v>
+        <v>99.97154286999999</v>
       </c>
       <c r="F34" t="n">
-        <v>100.06556673</v>
+        <v>100.14458395</v>
       </c>
       <c r="G34" t="n">
-        <v>100.36575092</v>
+        <v>100.07551169</v>
       </c>
       <c r="H34" t="n">
-        <v>100.23348131</v>
+        <v>100.10379007</v>
       </c>
       <c r="I34" t="n">
-        <v>99.11829649000001</v>
+        <v>99.90513319999999</v>
       </c>
       <c r="J34" t="n">
-        <v>101.88732361</v>
+        <v>98.28811295</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2010-02</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>100.31868772</v>
+        <v>99.59383645</v>
       </c>
       <c r="C35" t="n">
-        <v>100.28061011</v>
+        <v>100.10307141</v>
       </c>
       <c r="D35" t="n">
-        <v>101.21269356</v>
+        <v>100.14732081</v>
       </c>
       <c r="E35" t="n">
-        <v>101.23152154</v>
+        <v>100.94696246</v>
       </c>
       <c r="F35" t="n">
-        <v>100.16126545</v>
+        <v>100.27731143</v>
       </c>
       <c r="G35" t="n">
-        <v>100.13504072</v>
+        <v>100.6788548</v>
       </c>
       <c r="H35" t="n">
-        <v>100.044375</v>
+        <v>100.01393803</v>
       </c>
       <c r="I35" t="n">
-        <v>98.35309977999999</v>
+        <v>99.42351896</v>
       </c>
       <c r="J35" t="n">
-        <v>103.3769426</v>
+        <v>99.91971321</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2010-03</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>99.6062604</v>
+        <v>100.02012856</v>
       </c>
       <c r="C36" t="n">
-        <v>100.23088997</v>
+        <v>100.16070421</v>
       </c>
       <c r="D36" t="n">
-        <v>99.31992796999999</v>
+        <v>100.5545988</v>
       </c>
       <c r="E36" t="n">
-        <v>98.83976848</v>
+        <v>100.10464895</v>
       </c>
       <c r="F36" t="n">
-        <v>99.77011675</v>
+        <v>100.05418474</v>
       </c>
       <c r="G36" t="n">
-        <v>99.93150581</v>
+        <v>100.38685316</v>
       </c>
       <c r="H36" t="n">
-        <v>100.19590771</v>
+        <v>100.05876938</v>
       </c>
       <c r="I36" t="n">
-        <v>100.27352488</v>
+        <v>99.80597985</v>
       </c>
       <c r="J36" t="n">
-        <v>98.46491519</v>
+        <v>101.4506122</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2010-04</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>99.92584076</v>
+        <v>100.39589589</v>
       </c>
       <c r="C37" t="n">
-        <v>100.35410447</v>
+        <v>100.31397066</v>
       </c>
       <c r="D37" t="n">
-        <v>100.21542836</v>
+        <v>100.30763453</v>
       </c>
       <c r="E37" t="n">
-        <v>100.60892078</v>
+        <v>100.25820174</v>
       </c>
       <c r="F37" t="n">
-        <v>99.99296605000001</v>
+        <v>100.01454552</v>
       </c>
       <c r="G37" t="n">
-        <v>101.02761285</v>
+        <v>100.26595651</v>
       </c>
       <c r="H37" t="n">
-        <v>99.99517523</v>
+        <v>100.02930679</v>
       </c>
       <c r="I37" t="n">
-        <v>100.07285673</v>
+        <v>101.29881173</v>
       </c>
       <c r="J37" t="n">
-        <v>99.87765836</v>
+        <v>100.12624921</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2010-05</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>99.86827287</v>
+        <v>99.67165627</v>
       </c>
       <c r="C38" t="n">
-        <v>100.45100315</v>
+        <v>100.03949318</v>
       </c>
       <c r="D38" t="n">
-        <v>99.90987636</v>
+        <v>100.08838885</v>
       </c>
       <c r="E38" t="n">
-        <v>99.94336014</v>
+        <v>100.83213093</v>
       </c>
       <c r="F38" t="n">
-        <v>99.99250909</v>
+        <v>100.15640412</v>
       </c>
       <c r="G38" t="n">
-        <v>100.23647183</v>
+        <v>100.1682378</v>
       </c>
       <c r="H38" t="n">
-        <v>100.07943334</v>
+        <v>100.07960455</v>
       </c>
       <c r="I38" t="n">
-        <v>100.16352893</v>
+        <v>101.09330217</v>
       </c>
       <c r="J38" t="n">
-        <v>99.51102195</v>
+        <v>99.64671846</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2010-06</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>99.75173278</v>
+        <v>99.7624576</v>
       </c>
       <c r="C39" t="n">
-        <v>100.23677495</v>
+        <v>100.03967019</v>
       </c>
       <c r="D39" t="n">
-        <v>99.42223672999999</v>
+        <v>99.92249477</v>
       </c>
       <c r="E39" t="n">
-        <v>99.94881595</v>
+        <v>99.32871822</v>
       </c>
       <c r="F39" t="n">
-        <v>100.23340021</v>
+        <v>100.07481899</v>
       </c>
       <c r="G39" t="n">
-        <v>100.04709822</v>
+        <v>100.14386439</v>
       </c>
       <c r="H39" t="n">
-        <v>100.09142929</v>
+        <v>100.08022532</v>
       </c>
       <c r="I39" t="n">
-        <v>99.61049004</v>
+        <v>100.51538933</v>
       </c>
       <c r="J39" t="n">
-        <v>98.33931848</v>
+        <v>99.83100725</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2010-07</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>100.08474639</v>
+        <v>100.2884854</v>
       </c>
       <c r="C40" t="n">
-        <v>100.08529022</v>
+        <v>99.95865918</v>
       </c>
       <c r="D40" t="n">
-        <v>100.36617893</v>
+        <v>100.27691749</v>
       </c>
       <c r="E40" t="n">
-        <v>101.05874228</v>
+        <v>99.85370163</v>
       </c>
       <c r="F40" t="n">
-        <v>100.04791053</v>
+        <v>100.09767955</v>
       </c>
       <c r="G40" t="n">
-        <v>100.10764287</v>
+        <v>100.27624758</v>
       </c>
       <c r="H40" t="n">
-        <v>100.13190744</v>
+        <v>99.96640103</v>
       </c>
       <c r="I40" t="n">
-        <v>99.22041652</v>
+        <v>100.02577615</v>
       </c>
       <c r="J40" t="n">
-        <v>100.80465946</v>
+        <v>100.63249988</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2010-08</t>
+          <t>2013-01</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>99.80568843</v>
+        <v>100.11448877</v>
       </c>
       <c r="C41" t="n">
-        <v>100.12353383</v>
+        <v>100.10087392</v>
       </c>
       <c r="D41" t="n">
-        <v>100.60408476</v>
+        <v>100.95887056</v>
       </c>
       <c r="E41" t="n">
-        <v>100.25970173</v>
+        <v>100.57955805</v>
       </c>
       <c r="F41" t="n">
-        <v>100.14803525</v>
+        <v>100.32744439</v>
       </c>
       <c r="G41" t="n">
-        <v>100.18261183</v>
+        <v>100.13519448</v>
       </c>
       <c r="H41" t="n">
-        <v>100.22808321</v>
+        <v>99.95163017</v>
       </c>
       <c r="I41" t="n">
-        <v>99.37249319</v>
+        <v>99.45655762</v>
       </c>
       <c r="J41" t="n">
-        <v>101.80170971</v>
+        <v>102.68942052</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2010-09</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>99.89920026999999</v>
+        <v>100.4958359</v>
       </c>
       <c r="C42" t="n">
-        <v>100.25167103</v>
+        <v>100.21499236</v>
       </c>
       <c r="D42" t="n">
-        <v>100.5109643</v>
+        <v>101.06938169</v>
       </c>
       <c r="E42" t="n">
-        <v>100.04216778</v>
+        <v>100.71834366</v>
       </c>
       <c r="F42" t="n">
-        <v>99.95318546</v>
+        <v>100.2457662</v>
       </c>
       <c r="G42" t="n">
-        <v>100.40198818</v>
+        <v>100.32098005</v>
       </c>
       <c r="H42" t="n">
-        <v>100.13832869</v>
+        <v>99.86031938000001</v>
       </c>
       <c r="I42" t="n">
-        <v>100.6318564</v>
+        <v>99.26596618000001</v>
       </c>
       <c r="J42" t="n">
-        <v>101.11862101</v>
+        <v>102.74148802</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2010-10</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>100.00125543</v>
+        <v>99.69474561</v>
       </c>
       <c r="C43" t="n">
-        <v>100.54709432</v>
+        <v>99.96932198</v>
       </c>
       <c r="D43" t="n">
-        <v>100.65276986</v>
+        <v>99.11515660000001</v>
       </c>
       <c r="E43" t="n">
-        <v>100.15811844</v>
+        <v>99.51043138999999</v>
       </c>
       <c r="F43" t="n">
-        <v>99.98545003</v>
+        <v>99.97170472000001</v>
       </c>
       <c r="G43" t="n">
-        <v>100.77620927</v>
+        <v>100.60196702</v>
       </c>
       <c r="H43" t="n">
-        <v>100.21706233</v>
+        <v>100.10277959</v>
       </c>
       <c r="I43" t="n">
-        <v>100.94959971</v>
+        <v>100.72580572</v>
       </c>
       <c r="J43" t="n">
-        <v>101.10855591</v>
+        <v>97.11679355</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2010-11</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>99.92014592</v>
+        <v>99.54822677</v>
       </c>
       <c r="C44" t="n">
-        <v>100.66525121</v>
+        <v>100.0027054</v>
       </c>
       <c r="D44" t="n">
-        <v>100.96172275</v>
+        <v>100.28907385</v>
       </c>
       <c r="E44" t="n">
-        <v>98.75544676</v>
+        <v>100.47805047</v>
       </c>
       <c r="F44" t="n">
-        <v>100.46020601</v>
+        <v>100.1017356</v>
       </c>
       <c r="G44" t="n">
-        <v>101.59205827</v>
+        <v>100.22127778</v>
       </c>
       <c r="H44" t="n">
-        <v>100.27138275</v>
+        <v>99.94016305</v>
       </c>
       <c r="I44" t="n">
-        <v>101.6532217</v>
+        <v>100.66548664</v>
       </c>
       <c r="J44" t="n">
-        <v>101.89306847</v>
+        <v>100.53471532</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2010-12</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>100.07648535</v>
+        <v>99.59745791</v>
       </c>
       <c r="C45" t="n">
-        <v>100.44057146</v>
+        <v>100.03750736</v>
       </c>
       <c r="D45" t="n">
-        <v>100.5209307</v>
+        <v>99.42231280999999</v>
       </c>
       <c r="E45" t="n">
-        <v>99.66032543</v>
+        <v>99.65598546</v>
       </c>
       <c r="F45" t="n">
-        <v>100.50354081</v>
+        <v>100.11932341</v>
       </c>
       <c r="G45" t="n">
-        <v>100.67390274</v>
+        <v>100.06060261</v>
       </c>
       <c r="H45" t="n">
-        <v>100.29384926</v>
+        <v>99.89046621</v>
       </c>
       <c r="I45" t="n">
-        <v>100.48891991</v>
+        <v>100.08473133</v>
       </c>
       <c r="J45" t="n">
-        <v>100.9452644</v>
+        <v>98.42125545</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2011-01</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>100.50332319</v>
+        <v>100.01958324</v>
       </c>
       <c r="C46" t="n">
-        <v>100.23090354</v>
+        <v>100.00201018</v>
       </c>
       <c r="D46" t="n">
-        <v>101.03235747</v>
+        <v>99.97755542</v>
       </c>
       <c r="E46" t="n">
-        <v>100.51058319</v>
+        <v>100.03558267</v>
       </c>
       <c r="F46" t="n">
-        <v>100.42111891</v>
+        <v>100.04858717</v>
       </c>
       <c r="G46" t="n">
-        <v>100.28318579</v>
+        <v>100.08999684</v>
       </c>
       <c r="H46" t="n">
-        <v>100.21816779</v>
+        <v>99.88764888</v>
       </c>
       <c r="I46" t="n">
-        <v>99.28858323</v>
+        <v>99.61252901</v>
       </c>
       <c r="J46" t="n">
-        <v>102.8399599</v>
+        <v>99.9634641</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2011-02</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>100.01795636</v>
+        <v>100.27711873</v>
       </c>
       <c r="C47" t="n">
-        <v>100.14181776</v>
+        <v>99.94571657</v>
       </c>
       <c r="D47" t="n">
-        <v>101.21294619</v>
+        <v>100.12188141</v>
       </c>
       <c r="E47" t="n">
-        <v>100.36664858</v>
+        <v>100.89916034</v>
       </c>
       <c r="F47" t="n">
-        <v>100.20169163</v>
+        <v>100.13168724</v>
       </c>
       <c r="G47" t="n">
-        <v>100.31812044</v>
+        <v>100.29246373</v>
       </c>
       <c r="H47" t="n">
-        <v>100.19844646</v>
+        <v>99.95018498</v>
       </c>
       <c r="I47" t="n">
-        <v>99.23801266</v>
+        <v>99.35288263</v>
       </c>
       <c r="J47" t="n">
-        <v>103.68187099</v>
+        <v>99.95932449999999</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2011-03</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>100.1</v>
+        <v>100.15991326</v>
       </c>
       <c r="C48" t="n">
-        <v>100.3</v>
+        <v>100.15411447</v>
       </c>
       <c r="D48" t="n">
-        <v>99.8</v>
+        <v>100.42637064</v>
       </c>
       <c r="E48" t="n">
-        <v>99.2</v>
+        <v>99.99472896</v>
       </c>
       <c r="F48" t="n">
-        <v>100.3</v>
+        <v>100.05584274</v>
       </c>
       <c r="G48" t="n">
-        <v>100.6</v>
+        <v>100.23581445</v>
       </c>
       <c r="H48" t="n">
-        <v>100.4</v>
+        <v>100.01113636</v>
       </c>
       <c r="I48" t="n">
-        <v>100.7</v>
+        <v>99.89154689999999</v>
       </c>
       <c r="J48" t="n">
-        <v>99.09999999999999</v>
+        <v>101.09318929</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2011-04</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>100.4</v>
+        <v>100.17794626</v>
       </c>
       <c r="C49" t="n">
-        <v>100.3</v>
+        <v>100.1960535</v>
       </c>
       <c r="D49" t="n">
-        <v>100.2</v>
+        <v>100.8197685</v>
       </c>
       <c r="E49" t="n">
-        <v>100.5</v>
+        <v>101.06949127</v>
       </c>
       <c r="F49" t="n">
-        <v>100.2</v>
+        <v>100.00545998</v>
       </c>
       <c r="G49" t="n">
-        <v>100.4</v>
+        <v>100.29457317</v>
       </c>
       <c r="H49" t="n">
-        <v>100.3</v>
+        <v>99.81494767</v>
       </c>
       <c r="I49" t="n">
-        <v>100.7</v>
+        <v>101.29382293</v>
       </c>
       <c r="J49" t="n">
-        <v>99.59999999999999</v>
+        <v>101.50187262</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2011-05</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>100.1</v>
+        <v>99.69580617</v>
       </c>
       <c r="C50" t="n">
-        <v>100.4</v>
+        <v>100.14424341</v>
       </c>
       <c r="D50" t="n">
-        <v>100.1</v>
+        <v>100.05281241</v>
       </c>
       <c r="E50" t="n">
-        <v>100</v>
+        <v>99.94437360000001</v>
       </c>
       <c r="F50" t="n">
-        <v>100.4</v>
+        <v>100.23641094</v>
       </c>
       <c r="G50" t="n">
-        <v>100.2</v>
+        <v>100.22473747</v>
       </c>
       <c r="H50" t="n">
-        <v>100.4</v>
+        <v>100.12548945</v>
       </c>
       <c r="I50" t="n">
-        <v>100.5</v>
+        <v>100.98135625</v>
       </c>
       <c r="J50" t="n">
-        <v>99.7</v>
+        <v>99.798052</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2011-06</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>99.8</v>
+        <v>99.2870449</v>
       </c>
       <c r="C51" t="n">
-        <v>100.3</v>
+        <v>100.00131494</v>
       </c>
       <c r="D51" t="n">
-        <v>100.2</v>
+        <v>99.7614102</v>
       </c>
       <c r="E51" t="n">
-        <v>100</v>
+        <v>99.22671749</v>
       </c>
       <c r="F51" t="n">
-        <v>100.2</v>
+        <v>100.02709189</v>
       </c>
       <c r="G51" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8781907</v>
       </c>
       <c r="H51" t="n">
-        <v>100.3</v>
+        <v>99.97317554999999</v>
       </c>
       <c r="I51" t="n">
-        <v>99.8</v>
+        <v>100.83687785</v>
       </c>
       <c r="J51" t="n">
-        <v>100.8</v>
+        <v>99.61968512999999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2011-07</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>100.01264656</v>
+        <v>99.67969048</v>
       </c>
       <c r="C52" t="n">
-        <v>100.26093541</v>
+        <v>100.21063443</v>
       </c>
       <c r="D52" t="n">
-        <v>100.46423542</v>
+        <v>100.34836608</v>
       </c>
       <c r="E52" t="n">
-        <v>100.76972356</v>
+        <v>99.71253242</v>
       </c>
       <c r="F52" t="n">
-        <v>100.24181946</v>
+        <v>100.03450067</v>
       </c>
       <c r="G52" t="n">
-        <v>100.10204676</v>
+        <v>99.93712639</v>
       </c>
       <c r="H52" t="n">
-        <v>100.21359342</v>
+        <v>99.98908621</v>
       </c>
       <c r="I52" t="n">
-        <v>99.38307207</v>
+        <v>100.09427568</v>
       </c>
       <c r="J52" t="n">
-        <v>101.14882963</v>
+        <v>101.19762684</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2011-08</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>99.97293184</v>
+        <v>100.44287651</v>
       </c>
       <c r="C53" t="n">
-        <v>100.62093757</v>
+        <v>100.31813431</v>
       </c>
       <c r="D53" t="n">
-        <v>100.3090745</v>
+        <v>101.03519641</v>
       </c>
       <c r="E53" t="n">
-        <v>100.09704629</v>
+        <v>101.13754387</v>
       </c>
       <c r="F53" t="n">
-        <v>100.2190795</v>
+        <v>100.47323967</v>
       </c>
       <c r="G53" t="n">
-        <v>100.28255811</v>
+        <v>100.17229366</v>
       </c>
       <c r="H53" t="n">
-        <v>100.20789303</v>
+        <v>99.60964539</v>
       </c>
       <c r="I53" t="n">
-        <v>99.98298186</v>
+        <v>99.34835477999999</v>
       </c>
       <c r="J53" t="n">
-        <v>100.54783829</v>
+        <v>102.52904508</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2011-09</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>99.84958856</v>
+        <v>99.85306507</v>
       </c>
       <c r="C54" t="n">
-        <v>100.15827237</v>
+        <v>100.19375393</v>
       </c>
       <c r="D54" t="n">
-        <v>100.44003221</v>
+        <v>100.55295204</v>
       </c>
       <c r="E54" t="n">
-        <v>99.64027895</v>
+        <v>99.30868641000001</v>
       </c>
       <c r="F54" t="n">
-        <v>100.16072298</v>
+        <v>99.98468142</v>
       </c>
       <c r="G54" t="n">
-        <v>100.17483334</v>
+        <v>100.31679691</v>
       </c>
       <c r="H54" t="n">
-        <v>100.68227365</v>
+        <v>99.95979188</v>
       </c>
       <c r="I54" t="n">
-        <v>100.91408514</v>
+        <v>99.64646557</v>
       </c>
       <c r="J54" t="n">
-        <v>101.09519293</v>
+        <v>101.80309056</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2011-10</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>99.73055752</v>
+        <v>99.72179271</v>
       </c>
       <c r="C55" t="n">
-        <v>99.8276408</v>
+        <v>100.14439398</v>
       </c>
       <c r="D55" t="n">
-        <v>100.10902507</v>
+        <v>99.53759628</v>
       </c>
       <c r="E55" t="n">
-        <v>100.24033164</v>
+        <v>99.55155746</v>
       </c>
       <c r="F55" t="n">
-        <v>100.087814</v>
+        <v>99.98346488999999</v>
       </c>
       <c r="G55" t="n">
-        <v>100.0235121</v>
+        <v>100.24438037</v>
       </c>
       <c r="H55" t="n">
-        <v>100.55229535</v>
+        <v>100.10550342</v>
       </c>
       <c r="I55" t="n">
-        <v>101.57088697</v>
+        <v>100.78439588</v>
       </c>
       <c r="J55" t="n">
-        <v>99.89329615</v>
+        <v>98.49719426</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2011-11</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>99.75681011</v>
+        <v>100.01391513</v>
       </c>
       <c r="C56" t="n">
-        <v>100.23219488</v>
+        <v>100.04844043</v>
       </c>
       <c r="D56" t="n">
-        <v>99.81528174</v>
+        <v>99.67504783</v>
       </c>
       <c r="E56" t="n">
-        <v>99.07815816999999</v>
+        <v>100.34389368</v>
       </c>
       <c r="F56" t="n">
-        <v>100.31165199</v>
+        <v>100.07929917</v>
       </c>
       <c r="G56" t="n">
-        <v>99.97721102</v>
+        <v>100.08268116</v>
       </c>
       <c r="H56" t="n">
-        <v>100.40562548</v>
+        <v>99.92982752</v>
       </c>
       <c r="I56" t="n">
-        <v>101.42894556</v>
+        <v>100.62726006</v>
       </c>
       <c r="J56" t="n">
-        <v>99.31764978</v>
+        <v>98.67919611000001</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2011-12</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>99.88001693</v>
+        <v>100.13136969</v>
       </c>
       <c r="C57" t="n">
-        <v>99.87940077</v>
+        <v>100.14232383</v>
       </c>
       <c r="D57" t="n">
-        <v>100.33019663</v>
+        <v>100.07475802</v>
       </c>
       <c r="E57" t="n">
-        <v>99.64129099</v>
+        <v>99.84994981</v>
       </c>
       <c r="F57" t="n">
-        <v>99.95899224</v>
+        <v>100.07494928</v>
       </c>
       <c r="G57" t="n">
-        <v>99.71425106</v>
+        <v>99.99541402</v>
       </c>
       <c r="H57" t="n">
-        <v>100.33397435</v>
+        <v>99.96035655</v>
       </c>
       <c r="I57" t="n">
-        <v>100.17988554</v>
+        <v>100.29654209</v>
       </c>
       <c r="J57" t="n">
-        <v>101.35622699</v>
+        <v>100.11416493</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2012-01</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>100.32266688</v>
+        <v>100.07604489</v>
       </c>
       <c r="C58" t="n">
-        <v>100.05219927</v>
+        <v>100.08626246</v>
       </c>
       <c r="D58" t="n">
-        <v>101.48847592</v>
+        <v>99.85405579</v>
       </c>
       <c r="E58" t="n">
-        <v>101.21692986</v>
+        <v>100.00098661</v>
       </c>
       <c r="F58" t="n">
-        <v>100.49394018</v>
+        <v>100.12206382</v>
       </c>
       <c r="G58" t="n">
-        <v>100.17725192</v>
+        <v>100.01635491</v>
       </c>
       <c r="H58" t="n">
-        <v>100.07303674</v>
+        <v>99.90281554000001</v>
       </c>
       <c r="I58" t="n">
-        <v>98.80393699</v>
+        <v>99.76965473</v>
       </c>
       <c r="J58" t="n">
-        <v>104.21066042</v>
+        <v>99.55278934</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2012-02</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>100.03057582</v>
+        <v>100.33836655</v>
       </c>
       <c r="C59" t="n">
-        <v>100.30493662</v>
+        <v>100.12294817</v>
       </c>
       <c r="D59" t="n">
-        <v>99.87991363</v>
+        <v>100.05654568</v>
       </c>
       <c r="E59" t="n">
-        <v>98.99079509000001</v>
+        <v>100.9677443</v>
       </c>
       <c r="F59" t="n">
-        <v>100.11126919</v>
+        <v>100.03476455</v>
       </c>
       <c r="G59" t="n">
-        <v>100.50273619</v>
+        <v>100.04721861</v>
       </c>
       <c r="H59" t="n">
-        <v>100.1719893</v>
+        <v>99.95429433</v>
       </c>
       <c r="I59" t="n">
-        <v>99.74836059</v>
+        <v>99.38004371</v>
       </c>
       <c r="J59" t="n">
-        <v>99.65217112000001</v>
+        <v>99.82588469</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2012-03</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>100.19645624</v>
+        <v>99.66257770999999</v>
       </c>
       <c r="C60" t="n">
-        <v>100.05978034</v>
+        <v>100.05488336</v>
       </c>
       <c r="D60" t="n">
-        <v>100.24716225</v>
+        <v>100.1340185</v>
       </c>
       <c r="E60" t="n">
-        <v>99.83166186</v>
+        <v>99.75866504</v>
       </c>
       <c r="F60" t="n">
-        <v>99.95340709</v>
+        <v>100.01289298</v>
       </c>
       <c r="G60" t="n">
-        <v>100.41956578</v>
+        <v>100.0783387</v>
       </c>
       <c r="H60" t="n">
-        <v>100.18861518</v>
+        <v>99.85233177000001</v>
       </c>
       <c r="I60" t="n">
-        <v>100.5770908</v>
+        <v>99.86996555</v>
       </c>
       <c r="J60" t="n">
-        <v>100.33235396</v>
+        <v>100.57903463</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2012-04</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>100.39120339</v>
+        <v>99.67194256000001</v>
       </c>
       <c r="C61" t="n">
-        <v>100.2602253</v>
+        <v>100.02513771</v>
       </c>
       <c r="D61" t="n">
-        <v>99.95491527</v>
+        <v>100.4839854</v>
       </c>
       <c r="E61" t="n">
-        <v>100.76429062</v>
+        <v>101.08481693</v>
       </c>
       <c r="F61" t="n">
-        <v>100.18575702</v>
+        <v>100.02976668</v>
       </c>
       <c r="G61" t="n">
-        <v>100.23188644</v>
+        <v>100.10729955</v>
       </c>
       <c r="H61" t="n">
-        <v>100.17634901</v>
+        <v>99.83204066</v>
       </c>
       <c r="I61" t="n">
-        <v>100.44982105</v>
+        <v>101.07732556</v>
       </c>
       <c r="J61" t="n">
-        <v>99.09215958</v>
+        <v>100.83066377</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2012-05</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>99.67685729</v>
+        <v>99.96442816</v>
       </c>
       <c r="C62" t="n">
-        <v>100.07665286</v>
+        <v>100.23898781</v>
       </c>
       <c r="D62" t="n">
-        <v>99.73287988</v>
+        <v>99.71523006</v>
       </c>
       <c r="E62" t="n">
-        <v>99.89458046</v>
+        <v>99.6583</v>
       </c>
       <c r="F62" t="n">
-        <v>100.12206461</v>
+        <v>100.04894871</v>
       </c>
       <c r="G62" t="n">
-        <v>99.9887047</v>
+        <v>100.03956228</v>
       </c>
       <c r="H62" t="n">
-        <v>100.16982156</v>
+        <v>100.11060976</v>
       </c>
       <c r="I62" t="n">
-        <v>100.00684166</v>
+        <v>100.61771113</v>
       </c>
       <c r="J62" t="n">
-        <v>99.27358912</v>
+        <v>99.02045122</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2012-06</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>99.55586889</v>
+        <v>99.74487377</v>
       </c>
       <c r="C63" t="n">
-        <v>100.12999069</v>
+        <v>100.36816564</v>
       </c>
       <c r="D63" t="n">
-        <v>99.42299027999999</v>
+        <v>100.00202946</v>
       </c>
       <c r="E63" t="n">
-        <v>99.97154286999999</v>
+        <v>99.28618461000001</v>
       </c>
       <c r="F63" t="n">
-        <v>100.14458395</v>
+        <v>100.0633185</v>
       </c>
       <c r="G63" t="n">
-        <v>100.07551169</v>
+        <v>99.99946887999999</v>
       </c>
       <c r="H63" t="n">
-        <v>100.10379007</v>
+        <v>100.02386888</v>
       </c>
       <c r="I63" t="n">
-        <v>99.90513319999999</v>
+        <v>100.58732434</v>
       </c>
       <c r="J63" t="n">
-        <v>98.28811295</v>
+        <v>100.0653534</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2012-07</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>99.59383645</v>
+        <v>99.82663417000001</v>
       </c>
       <c r="C64" t="n">
-        <v>100.10307141</v>
+        <v>100.14751587</v>
       </c>
       <c r="D64" t="n">
-        <v>100.14732081</v>
+        <v>100.4944609</v>
       </c>
       <c r="E64" t="n">
-        <v>100.94696246</v>
+        <v>99.84031266</v>
       </c>
       <c r="F64" t="n">
-        <v>100.27731143</v>
+        <v>100.0390885</v>
       </c>
       <c r="G64" t="n">
-        <v>100.6788548</v>
+        <v>99.98838768</v>
       </c>
       <c r="H64" t="n">
-        <v>100.01393803</v>
+        <v>99.97645693</v>
       </c>
       <c r="I64" t="n">
-        <v>99.42351896</v>
+        <v>99.89741881</v>
       </c>
       <c r="J64" t="n">
-        <v>99.91971321</v>
+        <v>101.57414101</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2012-08</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>100.02012856</v>
+        <v>99.64759558999999</v>
       </c>
       <c r="C65" t="n">
-        <v>100.16070421</v>
+        <v>100.37412574</v>
       </c>
       <c r="D65" t="n">
-        <v>100.5545988</v>
+        <v>100.27408804</v>
       </c>
       <c r="E65" t="n">
-        <v>100.10464895</v>
+        <v>100.43479706</v>
       </c>
       <c r="F65" t="n">
-        <v>100.05418474</v>
+        <v>100.21452614</v>
       </c>
       <c r="G65" t="n">
-        <v>100.38685316</v>
+        <v>100.02101863</v>
       </c>
       <c r="H65" t="n">
-        <v>100.05876938</v>
+        <v>99.96251551</v>
       </c>
       <c r="I65" t="n">
-        <v>99.80597985</v>
+        <v>99.61079739</v>
       </c>
       <c r="J65" t="n">
-        <v>101.4506122</v>
+        <v>100.73216314</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2012-09</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>100.39589589</v>
+        <v>100.48374966</v>
       </c>
       <c r="C66" t="n">
-        <v>100.31397066</v>
+        <v>100.41191739</v>
       </c>
       <c r="D66" t="n">
-        <v>100.30763453</v>
+        <v>101.2505506</v>
       </c>
       <c r="E66" t="n">
-        <v>100.25820174</v>
+        <v>101.11896428</v>
       </c>
       <c r="F66" t="n">
-        <v>100.01454552</v>
+        <v>100.6308605</v>
       </c>
       <c r="G66" t="n">
-        <v>100.26595651</v>
+        <v>100.04277996</v>
       </c>
       <c r="H66" t="n">
-        <v>100.02930679</v>
+        <v>99.77097236</v>
       </c>
       <c r="I66" t="n">
-        <v>101.29881173</v>
+        <v>99.74261889</v>
       </c>
       <c r="J66" t="n">
-        <v>100.12624921</v>
+        <v>103.03300656</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2012-10</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>100.13438994</v>
+        <v>99.82473206</v>
       </c>
       <c r="C67" t="n">
-        <v>100.17235482</v>
+        <v>99.79297517000001</v>
       </c>
       <c r="D67" t="n">
-        <v>99.91335655</v>
+        <v>99.45881764000001</v>
       </c>
       <c r="E67" t="n">
-        <v>100.28228258</v>
+        <v>99.23850811</v>
       </c>
       <c r="F67" t="n">
-        <v>99.99643634</v>
+        <v>99.70281801</v>
       </c>
       <c r="G67" t="n">
-        <v>100.22117696</v>
+        <v>100.41136427</v>
       </c>
       <c r="H67" t="n">
-        <v>100.08687449</v>
+        <v>100.18145807</v>
       </c>
       <c r="I67" t="n">
-        <v>100.88240309</v>
+        <v>100.90871287</v>
       </c>
       <c r="J67" t="n">
-        <v>99.15389964000001</v>
+        <v>98.35996231999999</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2012-11</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>99.66081610000001</v>
+        <v>100.02578211</v>
       </c>
       <c r="C68" t="n">
-        <v>100.05410922</v>
+        <v>100.25326337</v>
       </c>
       <c r="D68" t="n">
-        <v>100.08974344</v>
+        <v>99.81575322</v>
       </c>
       <c r="E68" t="n">
-        <v>98.92385899</v>
+        <v>100.40480558</v>
       </c>
       <c r="F68" t="n">
-        <v>100.28038241</v>
+        <v>100.01829673</v>
       </c>
       <c r="G68" t="n">
-        <v>100.12088986</v>
+        <v>100.13302662</v>
       </c>
       <c r="H68" t="n">
-        <v>100.09476143</v>
+        <v>99.99170807</v>
       </c>
       <c r="I68" t="n">
-        <v>101.02745459</v>
+        <v>100.44077348</v>
       </c>
       <c r="J68" t="n">
-        <v>100.36861011</v>
+        <v>99.05074863</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2012-12</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>99.82943973</v>
+        <v>100.31526232</v>
       </c>
       <c r="C69" t="n">
-        <v>100.02670918</v>
+        <v>100.12669729</v>
       </c>
       <c r="D69" t="n">
-        <v>100.76242241</v>
+        <v>99.80821124000001</v>
       </c>
       <c r="E69" t="n">
-        <v>99.79726286</v>
+        <v>99.87980276</v>
       </c>
       <c r="F69" t="n">
-        <v>100.10955826</v>
+        <v>99.98385824</v>
       </c>
       <c r="G69" t="n">
-        <v>100.10376751</v>
+        <v>100.15249874</v>
       </c>
       <c r="H69" t="n">
-        <v>100.07394471</v>
+        <v>102.09648921</v>
       </c>
       <c r="I69" t="n">
-        <v>99.92443829</v>
+        <v>100.23713265</v>
       </c>
       <c r="J69" t="n">
-        <v>102.44016255</v>
+        <v>99.04761065</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2013-01</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>100.11448877</v>
+        <v>99.93130621</v>
       </c>
       <c r="C70" t="n">
-        <v>100.10087392</v>
+        <v>100.24621152</v>
       </c>
       <c r="D70" t="n">
-        <v>100.95887056</v>
+        <v>100.00628748</v>
       </c>
       <c r="E70" t="n">
-        <v>100.57955805</v>
+        <v>100.05305863</v>
       </c>
       <c r="F70" t="n">
-        <v>100.32744439</v>
+        <v>100.10951187</v>
       </c>
       <c r="G70" t="n">
-        <v>100.13519448</v>
+        <v>100.09849318</v>
       </c>
       <c r="H70" t="n">
-        <v>99.95163017</v>
+        <v>101.57590049</v>
       </c>
       <c r="I70" t="n">
-        <v>99.45655762</v>
+        <v>99.81944432</v>
       </c>
       <c r="J70" t="n">
-        <v>102.68942052</v>
+        <v>99.81257588</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2013-02</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>100.4958359</v>
+        <v>100.02530605</v>
       </c>
       <c r="C71" t="n">
-        <v>100.21499236</v>
+        <v>100.103872</v>
       </c>
       <c r="D71" t="n">
-        <v>101.06938169</v>
+        <v>100.30839768</v>
       </c>
       <c r="E71" t="n">
-        <v>100.71834366</v>
+        <v>100.87851018</v>
       </c>
       <c r="F71" t="n">
-        <v>100.2457662</v>
+        <v>100.05776949</v>
       </c>
       <c r="G71" t="n">
-        <v>100.32098005</v>
+        <v>100.10745895</v>
       </c>
       <c r="H71" t="n">
-        <v>99.86031938000001</v>
+        <v>100.05821761</v>
       </c>
       <c r="I71" t="n">
-        <v>99.26596618000001</v>
+        <v>99.42568885</v>
       </c>
       <c r="J71" t="n">
-        <v>102.74148802</v>
+        <v>100.6595797</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2013-03</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>99.69474561</v>
+        <v>99.37700509</v>
       </c>
       <c r="C72" t="n">
-        <v>99.96932198</v>
+        <v>100.11755843</v>
       </c>
       <c r="D72" t="n">
-        <v>99.11515660000001</v>
+        <v>100.4420369</v>
       </c>
       <c r="E72" t="n">
-        <v>99.51043138999999</v>
+        <v>99.92062652</v>
       </c>
       <c r="F72" t="n">
-        <v>99.97170472000001</v>
+        <v>99.96493864999999</v>
       </c>
       <c r="G72" t="n">
-        <v>100.60196702</v>
+        <v>100.08281399</v>
       </c>
       <c r="H72" t="n">
-        <v>100.10277959</v>
+        <v>100.03429173</v>
       </c>
       <c r="I72" t="n">
-        <v>100.72580572</v>
+        <v>99.85827503</v>
       </c>
       <c r="J72" t="n">
-        <v>97.11679355</v>
+        <v>101.49926174</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2013-04</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>99.54822677</v>
+        <v>99.6425897</v>
       </c>
       <c r="C73" t="n">
-        <v>100.0027054</v>
+        <v>100.17240293</v>
       </c>
       <c r="D73" t="n">
-        <v>100.28907385</v>
+        <v>100.11550399</v>
       </c>
       <c r="E73" t="n">
-        <v>100.47805047</v>
+        <v>100.5175061</v>
       </c>
       <c r="F73" t="n">
-        <v>100.1017356</v>
+        <v>100.07595607</v>
       </c>
       <c r="G73" t="n">
-        <v>100.22127778</v>
+        <v>100.12134046</v>
       </c>
       <c r="H73" t="n">
-        <v>99.94016305</v>
+        <v>99.87199375</v>
       </c>
       <c r="I73" t="n">
-        <v>100.66548664</v>
+        <v>100.91849726</v>
       </c>
       <c r="J73" t="n">
-        <v>100.53471532</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>2013-05</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>99.59745791</v>
-      </c>
-      <c r="C74" t="n">
-        <v>100.03750736</v>
-      </c>
-      <c r="D74" t="n">
-        <v>99.42231280999999</v>
-      </c>
-      <c r="E74" t="n">
-        <v>99.65598546</v>
-      </c>
-      <c r="F74" t="n">
-        <v>100.11932341</v>
-      </c>
-      <c r="G74" t="n">
-        <v>100.06060261</v>
-      </c>
-      <c r="H74" t="n">
-        <v>99.89046621</v>
-      </c>
-      <c r="I74" t="n">
-        <v>100.08473133</v>
-      </c>
-      <c r="J74" t="n">
-        <v>98.42125545</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>2013-06</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>100.01958324</v>
-      </c>
-      <c r="C75" t="n">
-        <v>100.00201018</v>
-      </c>
-      <c r="D75" t="n">
-        <v>99.97755542</v>
-      </c>
-      <c r="E75" t="n">
-        <v>100.03558267</v>
-      </c>
-      <c r="F75" t="n">
-        <v>100.04858717</v>
-      </c>
-      <c r="G75" t="n">
-        <v>100.08999684</v>
-      </c>
-      <c r="H75" t="n">
-        <v>99.88764888</v>
-      </c>
-      <c r="I75" t="n">
-        <v>99.61252901</v>
-      </c>
-      <c r="J75" t="n">
-        <v>99.9634641</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>2013-07</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>100.27711873</v>
-      </c>
-      <c r="C76" t="n">
-        <v>99.94571657</v>
-      </c>
-      <c r="D76" t="n">
-        <v>100.12188141</v>
-      </c>
-      <c r="E76" t="n">
-        <v>100.89916034</v>
-      </c>
-      <c r="F76" t="n">
-        <v>100.13168724</v>
-      </c>
-      <c r="G76" t="n">
-        <v>100.29246373</v>
-      </c>
-      <c r="H76" t="n">
-        <v>99.95018498</v>
-      </c>
-      <c r="I76" t="n">
-        <v>99.35288263</v>
-      </c>
-      <c r="J76" t="n">
-        <v>99.95932449999999</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>2013-08</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>100.15991326</v>
-      </c>
-      <c r="C77" t="n">
-        <v>100.15411447</v>
-      </c>
-      <c r="D77" t="n">
-        <v>100.42637064</v>
-      </c>
-      <c r="E77" t="n">
-        <v>99.99472896</v>
-      </c>
-      <c r="F77" t="n">
-        <v>100.05584274</v>
-      </c>
-      <c r="G77" t="n">
-        <v>100.23581445</v>
-      </c>
-      <c r="H77" t="n">
-        <v>100.01113636</v>
-      </c>
-      <c r="I77" t="n">
-        <v>99.89154689999999</v>
-      </c>
-      <c r="J77" t="n">
-        <v>101.09318929</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="inlineStr">
-        <is>
-          <t>2013-09</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>100.17794626</v>
-      </c>
-      <c r="C78" t="n">
-        <v>100.1960535</v>
-      </c>
-      <c r="D78" t="n">
-        <v>100.8197685</v>
-      </c>
-      <c r="E78" t="n">
-        <v>101.06949127</v>
-      </c>
-      <c r="F78" t="n">
-        <v>100.00545998</v>
-      </c>
-      <c r="G78" t="n">
-        <v>100.29457317</v>
-      </c>
-      <c r="H78" t="n">
-        <v>99.81494767</v>
-      </c>
-      <c r="I78" t="n">
-        <v>101.29382293</v>
-      </c>
-      <c r="J78" t="n">
-        <v>101.50187262</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="inlineStr">
-        <is>
-          <t>2013-10</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>99.67165627</v>
-      </c>
-      <c r="C79" t="n">
-        <v>100.03949318</v>
-      </c>
-      <c r="D79" t="n">
-        <v>100.08838885</v>
-      </c>
-      <c r="E79" t="n">
-        <v>100.83213093</v>
-      </c>
-      <c r="F79" t="n">
-        <v>100.15640412</v>
-      </c>
-      <c r="G79" t="n">
-        <v>100.1682378</v>
-      </c>
-      <c r="H79" t="n">
-        <v>100.07960455</v>
-      </c>
-      <c r="I79" t="n">
-        <v>101.09330217</v>
-      </c>
-      <c r="J79" t="n">
-        <v>99.64671846</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
-        <is>
-          <t>2013-11</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>99.7624576</v>
-      </c>
-      <c r="C80" t="n">
-        <v>100.03967019</v>
-      </c>
-      <c r="D80" t="n">
-        <v>99.92249477</v>
-      </c>
-      <c r="E80" t="n">
-        <v>99.32871822</v>
-      </c>
-      <c r="F80" t="n">
-        <v>100.07481899</v>
-      </c>
-      <c r="G80" t="n">
-        <v>100.14386439</v>
-      </c>
-      <c r="H80" t="n">
-        <v>100.08022532</v>
-      </c>
-      <c r="I80" t="n">
-        <v>100.51538933</v>
-      </c>
-      <c r="J80" t="n">
-        <v>99.83100725</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="inlineStr">
-        <is>
-          <t>2013-12</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>100.2884854</v>
-      </c>
-      <c r="C81" t="n">
-        <v>99.95865918</v>
-      </c>
-      <c r="D81" t="n">
-        <v>100.27691749</v>
-      </c>
-      <c r="E81" t="n">
-        <v>99.85370163</v>
-      </c>
-      <c r="F81" t="n">
-        <v>100.09767955</v>
-      </c>
-      <c r="G81" t="n">
-        <v>100.27624758</v>
-      </c>
-      <c r="H81" t="n">
-        <v>99.96640103</v>
-      </c>
-      <c r="I81" t="n">
-        <v>100.02577615</v>
-      </c>
-      <c r="J81" t="n">
-        <v>100.63249988</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>2014-01</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>100.44287651</v>
-      </c>
-      <c r="C82" t="n">
-        <v>100.31813431</v>
-      </c>
-      <c r="D82" t="n">
-        <v>101.03519641</v>
-      </c>
-      <c r="E82" t="n">
-        <v>101.13754387</v>
-      </c>
-      <c r="F82" t="n">
-        <v>100.47323967</v>
-      </c>
-      <c r="G82" t="n">
-        <v>100.17229366</v>
-      </c>
-      <c r="H82" t="n">
-        <v>99.60964539</v>
-      </c>
-      <c r="I82" t="n">
-        <v>99.34835477999999</v>
-      </c>
-      <c r="J82" t="n">
-        <v>102.52904508</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="inlineStr">
-        <is>
-          <t>2014-02</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>99.85306507</v>
-      </c>
-      <c r="C83" t="n">
-        <v>100.19375393</v>
-      </c>
-      <c r="D83" t="n">
-        <v>100.55295204</v>
-      </c>
-      <c r="E83" t="n">
-        <v>99.30868641000001</v>
-      </c>
-      <c r="F83" t="n">
-        <v>99.98468142</v>
-      </c>
-      <c r="G83" t="n">
-        <v>100.31679691</v>
-      </c>
-      <c r="H83" t="n">
-        <v>99.95979188</v>
-      </c>
-      <c r="I83" t="n">
-        <v>99.64646557</v>
-      </c>
-      <c r="J83" t="n">
-        <v>101.80309056</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="inlineStr">
-        <is>
-          <t>2014-03</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>99.72179271</v>
-      </c>
-      <c r="C84" t="n">
-        <v>100.14439398</v>
-      </c>
-      <c r="D84" t="n">
-        <v>99.53759628</v>
-      </c>
-      <c r="E84" t="n">
-        <v>99.55155746</v>
-      </c>
-      <c r="F84" t="n">
-        <v>99.98346488999999</v>
-      </c>
-      <c r="G84" t="n">
-        <v>100.24438037</v>
-      </c>
-      <c r="H84" t="n">
-        <v>100.10550342</v>
-      </c>
-      <c r="I84" t="n">
-        <v>100.78439588</v>
-      </c>
-      <c r="J84" t="n">
-        <v>98.49719426</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>2014-04</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>100.01391513</v>
-      </c>
-      <c r="C85" t="n">
-        <v>100.04844043</v>
-      </c>
-      <c r="D85" t="n">
-        <v>99.67504783</v>
-      </c>
-      <c r="E85" t="n">
-        <v>100.34389368</v>
-      </c>
-      <c r="F85" t="n">
-        <v>100.07929917</v>
-      </c>
-      <c r="G85" t="n">
-        <v>100.08268116</v>
-      </c>
-      <c r="H85" t="n">
-        <v>99.92982752</v>
-      </c>
-      <c r="I85" t="n">
-        <v>100.62726006</v>
-      </c>
-      <c r="J85" t="n">
-        <v>98.67919611000001</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="inlineStr">
-        <is>
-          <t>2014-05</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>100.13136969</v>
-      </c>
-      <c r="C86" t="n">
-        <v>100.14232383</v>
-      </c>
-      <c r="D86" t="n">
-        <v>100.07475802</v>
-      </c>
-      <c r="E86" t="n">
-        <v>99.84994981</v>
-      </c>
-      <c r="F86" t="n">
-        <v>100.07494928</v>
-      </c>
-      <c r="G86" t="n">
-        <v>99.99541402</v>
-      </c>
-      <c r="H86" t="n">
-        <v>99.96035655</v>
-      </c>
-      <c r="I86" t="n">
-        <v>100.29654209</v>
-      </c>
-      <c r="J86" t="n">
-        <v>100.11416493</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="inlineStr">
-        <is>
-          <t>2014-06</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>100.07604489</v>
-      </c>
-      <c r="C87" t="n">
-        <v>100.08626246</v>
-      </c>
-      <c r="D87" t="n">
-        <v>99.85405579</v>
-      </c>
-      <c r="E87" t="n">
-        <v>100.00098661</v>
-      </c>
-      <c r="F87" t="n">
-        <v>100.12206382</v>
-      </c>
-      <c r="G87" t="n">
-        <v>100.01635491</v>
-      </c>
-      <c r="H87" t="n">
-        <v>99.90281554000001</v>
-      </c>
-      <c r="I87" t="n">
-        <v>99.76965473</v>
-      </c>
-      <c r="J87" t="n">
-        <v>99.55278934</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="inlineStr">
-        <is>
-          <t>2014-07</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>100.33836655</v>
-      </c>
-      <c r="C88" t="n">
-        <v>100.12294817</v>
-      </c>
-      <c r="D88" t="n">
-        <v>100.05654568</v>
-      </c>
-      <c r="E88" t="n">
-        <v>100.9677443</v>
-      </c>
-      <c r="F88" t="n">
-        <v>100.03476455</v>
-      </c>
-      <c r="G88" t="n">
-        <v>100.04721861</v>
-      </c>
-      <c r="H88" t="n">
-        <v>99.95429433</v>
-      </c>
-      <c r="I88" t="n">
-        <v>99.38004371</v>
-      </c>
-      <c r="J88" t="n">
-        <v>99.82588469</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="inlineStr">
-        <is>
-          <t>2014-08</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>99.66257770999999</v>
-      </c>
-      <c r="C89" t="n">
-        <v>100.05488336</v>
-      </c>
-      <c r="D89" t="n">
-        <v>100.1340185</v>
-      </c>
-      <c r="E89" t="n">
-        <v>99.75866504</v>
-      </c>
-      <c r="F89" t="n">
-        <v>100.01289298</v>
-      </c>
-      <c r="G89" t="n">
-        <v>100.0783387</v>
-      </c>
-      <c r="H89" t="n">
-        <v>99.85233177000001</v>
-      </c>
-      <c r="I89" t="n">
-        <v>99.86996555</v>
-      </c>
-      <c r="J89" t="n">
-        <v>100.57903463</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="inlineStr">
-        <is>
-          <t>2014-09</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>99.67194256000001</v>
-      </c>
-      <c r="C90" t="n">
-        <v>100.02513771</v>
-      </c>
-      <c r="D90" t="n">
-        <v>100.4839854</v>
-      </c>
-      <c r="E90" t="n">
-        <v>101.08481693</v>
-      </c>
-      <c r="F90" t="n">
-        <v>100.02976668</v>
-      </c>
-      <c r="G90" t="n">
-        <v>100.10729955</v>
-      </c>
-      <c r="H90" t="n">
-        <v>99.83204066</v>
-      </c>
-      <c r="I90" t="n">
-        <v>101.07732556</v>
-      </c>
-      <c r="J90" t="n">
-        <v>100.83066377</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="inlineStr">
-        <is>
-          <t>2014-10</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>99.69580617</v>
-      </c>
-      <c r="C91" t="n">
-        <v>100.14424341</v>
-      </c>
-      <c r="D91" t="n">
-        <v>100.05281241</v>
-      </c>
-      <c r="E91" t="n">
-        <v>99.94437360000001</v>
-      </c>
-      <c r="F91" t="n">
-        <v>100.23641094</v>
-      </c>
-      <c r="G91" t="n">
-        <v>100.22473747</v>
-      </c>
-      <c r="H91" t="n">
-        <v>100.12548945</v>
-      </c>
-      <c r="I91" t="n">
-        <v>100.98135625</v>
-      </c>
-      <c r="J91" t="n">
-        <v>99.798052</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="inlineStr">
-        <is>
-          <t>2014-11</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>99.2870449</v>
-      </c>
-      <c r="C92" t="n">
-        <v>100.00131494</v>
-      </c>
-      <c r="D92" t="n">
-        <v>99.7614102</v>
-      </c>
-      <c r="E92" t="n">
-        <v>99.22671749</v>
-      </c>
-      <c r="F92" t="n">
-        <v>100.02709189</v>
-      </c>
-      <c r="G92" t="n">
-        <v>99.8781907</v>
-      </c>
-      <c r="H92" t="n">
-        <v>99.97317554999999</v>
-      </c>
-      <c r="I92" t="n">
-        <v>100.83687785</v>
-      </c>
-      <c r="J92" t="n">
-        <v>99.61968512999999</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="inlineStr">
-        <is>
-          <t>2014-12</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>99.67969048</v>
-      </c>
-      <c r="C93" t="n">
-        <v>100.21063443</v>
-      </c>
-      <c r="D93" t="n">
-        <v>100.34836608</v>
-      </c>
-      <c r="E93" t="n">
-        <v>99.71253242</v>
-      </c>
-      <c r="F93" t="n">
-        <v>100.03450067</v>
-      </c>
-      <c r="G93" t="n">
-        <v>99.93712639</v>
-      </c>
-      <c r="H93" t="n">
-        <v>99.98908621</v>
-      </c>
-      <c r="I93" t="n">
-        <v>100.09427568</v>
-      </c>
-      <c r="J93" t="n">
-        <v>101.19762684</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="inlineStr">
-        <is>
-          <t>2015-01</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>99.64759558999999</v>
-      </c>
-      <c r="C94" t="n">
-        <v>100.37412574</v>
-      </c>
-      <c r="D94" t="n">
-        <v>100.27408804</v>
-      </c>
-      <c r="E94" t="n">
-        <v>100.43479706</v>
-      </c>
-      <c r="F94" t="n">
-        <v>100.21452614</v>
-      </c>
-      <c r="G94" t="n">
-        <v>100.02101863</v>
-      </c>
-      <c r="H94" t="n">
-        <v>99.96251551</v>
-      </c>
-      <c r="I94" t="n">
-        <v>99.61079739</v>
-      </c>
-      <c r="J94" t="n">
-        <v>100.73216314</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="inlineStr">
-        <is>
-          <t>2015-02</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>100.48374966</v>
-      </c>
-      <c r="C95" t="n">
-        <v>100.41191739</v>
-      </c>
-      <c r="D95" t="n">
-        <v>101.2505506</v>
-      </c>
-      <c r="E95" t="n">
-        <v>101.11896428</v>
-      </c>
-      <c r="F95" t="n">
-        <v>100.6308605</v>
-      </c>
-      <c r="G95" t="n">
-        <v>100.04277996</v>
-      </c>
-      <c r="H95" t="n">
-        <v>99.77097236</v>
-      </c>
-      <c r="I95" t="n">
-        <v>99.74261889</v>
-      </c>
-      <c r="J95" t="n">
-        <v>103.03300656</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="inlineStr">
-        <is>
-          <t>2015-03</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>99.82473206</v>
-      </c>
-      <c r="C96" t="n">
-        <v>99.79297517000001</v>
-      </c>
-      <c r="D96" t="n">
-        <v>99.45881764000001</v>
-      </c>
-      <c r="E96" t="n">
-        <v>99.23850811</v>
-      </c>
-      <c r="F96" t="n">
-        <v>99.70281801</v>
-      </c>
-      <c r="G96" t="n">
-        <v>100.41136427</v>
-      </c>
-      <c r="H96" t="n">
-        <v>100.18145807</v>
-      </c>
-      <c r="I96" t="n">
-        <v>100.90871287</v>
-      </c>
-      <c r="J96" t="n">
-        <v>98.35996231999999</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="inlineStr">
-        <is>
-          <t>2015-04</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>100.02578211</v>
-      </c>
-      <c r="C97" t="n">
-        <v>100.25326337</v>
-      </c>
-      <c r="D97" t="n">
-        <v>99.81575322</v>
-      </c>
-      <c r="E97" t="n">
-        <v>100.40480558</v>
-      </c>
-      <c r="F97" t="n">
-        <v>100.01829673</v>
-      </c>
-      <c r="G97" t="n">
-        <v>100.13302662</v>
-      </c>
-      <c r="H97" t="n">
-        <v>99.99170807</v>
-      </c>
-      <c r="I97" t="n">
-        <v>100.44077348</v>
-      </c>
-      <c r="J97" t="n">
-        <v>99.05074863</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="inlineStr">
-        <is>
-          <t>2015-05</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>100.31526232</v>
-      </c>
-      <c r="C98" t="n">
-        <v>100.12669729</v>
-      </c>
-      <c r="D98" t="n">
-        <v>99.80821124000001</v>
-      </c>
-      <c r="E98" t="n">
-        <v>99.87980276</v>
-      </c>
-      <c r="F98" t="n">
-        <v>99.98385824</v>
-      </c>
-      <c r="G98" t="n">
-        <v>100.15249874</v>
-      </c>
-      <c r="H98" t="n">
-        <v>102.09648921</v>
-      </c>
-      <c r="I98" t="n">
-        <v>100.23713265</v>
-      </c>
-      <c r="J98" t="n">
-        <v>99.04761065</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="inlineStr">
-        <is>
-          <t>2015-06</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>99.93130621</v>
-      </c>
-      <c r="C99" t="n">
-        <v>100.24621152</v>
-      </c>
-      <c r="D99" t="n">
-        <v>100.00628748</v>
-      </c>
-      <c r="E99" t="n">
-        <v>100.05305863</v>
-      </c>
-      <c r="F99" t="n">
-        <v>100.10951187</v>
-      </c>
-      <c r="G99" t="n">
-        <v>100.09849318</v>
-      </c>
-      <c r="H99" t="n">
-        <v>101.57590049</v>
-      </c>
-      <c r="I99" t="n">
-        <v>99.81944432</v>
-      </c>
-      <c r="J99" t="n">
-        <v>99.81257588</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="inlineStr">
-        <is>
-          <t>2015-07</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>100.02530605</v>
-      </c>
-      <c r="C100" t="n">
-        <v>100.103872</v>
-      </c>
-      <c r="D100" t="n">
-        <v>100.30839768</v>
-      </c>
-      <c r="E100" t="n">
-        <v>100.87851018</v>
-      </c>
-      <c r="F100" t="n">
-        <v>100.05776949</v>
-      </c>
-      <c r="G100" t="n">
-        <v>100.10745895</v>
-      </c>
-      <c r="H100" t="n">
-        <v>100.05821761</v>
-      </c>
-      <c r="I100" t="n">
-        <v>99.42568885</v>
-      </c>
-      <c r="J100" t="n">
-        <v>100.6595797</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="inlineStr">
-        <is>
-          <t>2015-08</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>99.37700509</v>
-      </c>
-      <c r="C101" t="n">
-        <v>100.11755843</v>
-      </c>
-      <c r="D101" t="n">
-        <v>100.4420369</v>
-      </c>
-      <c r="E101" t="n">
-        <v>99.92062652</v>
-      </c>
-      <c r="F101" t="n">
-        <v>99.96493864999999</v>
-      </c>
-      <c r="G101" t="n">
-        <v>100.08281399</v>
-      </c>
-      <c r="H101" t="n">
-        <v>100.03429173</v>
-      </c>
-      <c r="I101" t="n">
-        <v>99.85827503</v>
-      </c>
-      <c r="J101" t="n">
-        <v>101.49926174</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="inlineStr">
-        <is>
-          <t>2015-09</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>99.6425897</v>
-      </c>
-      <c r="C102" t="n">
-        <v>100.17240293</v>
-      </c>
-      <c r="D102" t="n">
-        <v>100.11550399</v>
-      </c>
-      <c r="E102" t="n">
-        <v>100.5175061</v>
-      </c>
-      <c r="F102" t="n">
-        <v>100.07595607</v>
-      </c>
-      <c r="G102" t="n">
-        <v>100.12134046</v>
-      </c>
-      <c r="H102" t="n">
-        <v>99.87199375</v>
-      </c>
-      <c r="I102" t="n">
-        <v>100.91849726</v>
-      </c>
-      <c r="J102" t="n">
         <v>99.91065616</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="inlineStr">
-        <is>
-          <t>2015-10</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>99.96442816</v>
-      </c>
-      <c r="C103" t="n">
-        <v>100.23898781</v>
-      </c>
-      <c r="D103" t="n">
-        <v>99.71523006</v>
-      </c>
-      <c r="E103" t="n">
-        <v>99.6583</v>
-      </c>
-      <c r="F103" t="n">
-        <v>100.04894871</v>
-      </c>
-      <c r="G103" t="n">
-        <v>100.03956228</v>
-      </c>
-      <c r="H103" t="n">
-        <v>100.11060976</v>
-      </c>
-      <c r="I103" t="n">
-        <v>100.61771113</v>
-      </c>
-      <c r="J103" t="n">
-        <v>99.02045122</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="inlineStr">
-        <is>
-          <t>2015-11</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>99.74487377</v>
-      </c>
-      <c r="C104" t="n">
-        <v>100.36816564</v>
-      </c>
-      <c r="D104" t="n">
-        <v>100.00202946</v>
-      </c>
-      <c r="E104" t="n">
-        <v>99.28618461000001</v>
-      </c>
-      <c r="F104" t="n">
-        <v>100.0633185</v>
-      </c>
-      <c r="G104" t="n">
-        <v>99.99946887999999</v>
-      </c>
-      <c r="H104" t="n">
-        <v>100.02386888</v>
-      </c>
-      <c r="I104" t="n">
-        <v>100.58732434</v>
-      </c>
-      <c r="J104" t="n">
-        <v>100.0653534</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="inlineStr">
-        <is>
-          <t>2015-12</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>99.82663417000001</v>
-      </c>
-      <c r="C105" t="n">
-        <v>100.14751587</v>
-      </c>
-      <c r="D105" t="n">
-        <v>100.4944609</v>
-      </c>
-      <c r="E105" t="n">
-        <v>99.84031266</v>
-      </c>
-      <c r="F105" t="n">
-        <v>100.0390885</v>
-      </c>
-      <c r="G105" t="n">
-        <v>99.98838768</v>
-      </c>
-      <c r="H105" t="n">
-        <v>99.97645693</v>
-      </c>
-      <c r="I105" t="n">
-        <v>99.89741881</v>
-      </c>
-      <c r="J105" t="n">
-        <v>101.57414101</v>
       </c>
     </row>
   </sheetData>
